--- a/Secure D Web Application Security Test Checklist v1.00.xlsx
+++ b/Secure D Web Application Security Test Checklist v1.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bankde/Desktop/work/wastc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6EAF45-AA16-ED4D-B956-FE124342F4E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A43B1F-3A05-3F47-82C0-E7BE5E0140D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project information" sheetId="1" r:id="rId1"/>
@@ -1052,11 +1052,6 @@
 - Tools: OWASP ZAP, nikto, manual review</t>
   </si>
   <si>
-    <t>- While not as critical as XSS, allowing HTML structure injection gives attacker ability to insert malicious contents or redirect traffic to malicious site.
-- Test with HTML tags: &lt;form&gt; &lt;a href&gt; &lt;iframe&gt;
-- Tools: OWASP ZAP, nikto, manual review</t>
-  </si>
-  <si>
     <t>- Web application written with c, c++
 - Using vulnerable programming language versions of Python, NodeJS, etc.
 - Test by long, gibberish input
@@ -3003,6 +2998,12 @@
   </si>
   <si>
     <t>Secure D Web Application Security Test Checklist v1.00</t>
+  </si>
+  <si>
+    <t>- While not as critical as XSS, allowing HTML structure injection gives attacker ability to insert malicious contents or redirect traffic to malicious site.
+- Test with HTML tags: &lt;form&gt; &lt;a href&gt; &lt;iframe&gt;
+- Try DOM Clobbering for possible XSS
+- Tools: OWASP ZAP, nikto, manual review</t>
   </si>
 </sst>
 </file>
@@ -4489,7 +4490,7 @@
   </sheetPr>
   <dimension ref="A1:IV8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4546,7 +4547,7 @@
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4700,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -4772,15 +4773,15 @@
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>255</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>256</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4899,15 +4900,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>238</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>239</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="84" x14ac:dyDescent="0.15">
@@ -4934,24 +4935,24 @@
         <v>37</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="26"/>
       <c r="C9" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="154" x14ac:dyDescent="0.15">
@@ -5026,7 +5027,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -5038,7 +5039,7 @@
       <c r="A15" s="14"/>
       <c r="B15" s="26"/>
       <c r="C15" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -5102,7 +5103,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -5114,7 +5115,7 @@
       <c r="A20" s="27"/>
       <c r="B20" s="23"/>
       <c r="C20" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -5246,7 +5247,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="126" x14ac:dyDescent="0.15">
@@ -5257,7 +5258,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="17"/>
@@ -5269,7 +5270,7 @@
       <c r="A6" s="20"/>
       <c r="B6" s="26"/>
       <c r="C6" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -5281,7 +5282,7 @@
       <c r="A7" s="20"/>
       <c r="B7" s="26"/>
       <c r="C7" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -5297,7 +5298,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -5309,7 +5310,7 @@
       <c r="A9" s="20"/>
       <c r="B9" s="26"/>
       <c r="C9" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -5321,7 +5322,7 @@
       <c r="A10" s="20"/>
       <c r="B10" s="26"/>
       <c r="C10" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -5333,7 +5334,7 @@
       <c r="A11" s="20"/>
       <c r="B11" s="26"/>
       <c r="C11" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -5345,7 +5346,7 @@
       <c r="A12" s="20"/>
       <c r="B12" s="26"/>
       <c r="C12" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -5425,7 +5426,7 @@
         <v>78</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -5437,19 +5438,19 @@
       <c r="A18" s="20"/>
       <c r="B18" s="26"/>
       <c r="C18" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="84" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
       <c r="B19" s="26"/>
       <c r="C19" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -5465,7 +5466,7 @@
         <v>80</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -5477,7 +5478,7 @@
       <c r="A21" s="20"/>
       <c r="B21" s="26"/>
       <c r="C21" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -5489,19 +5490,19 @@
       <c r="A22" s="20"/>
       <c r="B22" s="26"/>
       <c r="C22" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="56" x14ac:dyDescent="0.15">
       <c r="A23" s="20"/>
       <c r="B23" s="26"/>
       <c r="C23" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -5517,7 +5518,7 @@
         <v>84</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -5529,7 +5530,7 @@
       <c r="A25" s="20"/>
       <c r="B25" s="26"/>
       <c r="C25" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -5545,7 +5546,7 @@
         <v>87</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -5582,7 +5583,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="126" x14ac:dyDescent="0.15">
@@ -5598,7 +5599,7 @@
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="70" x14ac:dyDescent="0.15">
@@ -5653,7 +5654,7 @@
   </sheetPr>
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -5720,12 +5721,12 @@
         <v>99</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="140" x14ac:dyDescent="0.15">
@@ -5784,7 +5785,7 @@
         <v>106</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -5816,7 +5817,7 @@
         <v>109</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -5832,19 +5833,19 @@
         <v>111</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="26"/>
       <c r="C12" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -5856,7 +5857,7 @@
       <c r="A13" s="20"/>
       <c r="B13" s="26"/>
       <c r="C13" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -5904,7 +5905,7 @@
         <v>117</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -5920,7 +5921,7 @@
         <v>118</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -5936,7 +5937,7 @@
         <v>120</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -5968,7 +5969,7 @@
         <v>123</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -5984,7 +5985,7 @@
         <v>125</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -6000,7 +6001,7 @@
         <v>127</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -6013,15 +6014,15 @@
         <v>17</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="112" x14ac:dyDescent="0.15">
@@ -6032,7 +6033,7 @@
         <v>129</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -6048,7 +6049,7 @@
         <v>131</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -6064,7 +6065,7 @@
         <v>133</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -6080,7 +6081,7 @@
         <v>135</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -6096,7 +6097,7 @@
         <v>137</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -6279,7 +6280,7 @@
         <v>147</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -6454,7 +6455,7 @@
         <v>160</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -6470,12 +6471,12 @@
         <v>162</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="70" x14ac:dyDescent="0.15">
@@ -6486,7 +6487,7 @@
         <v>163</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -6499,15 +6500,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.15">
@@ -6515,15 +6516,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42" x14ac:dyDescent="0.15">
@@ -6550,7 +6551,7 @@
         <v>167</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>

--- a/Secure D Web Application Security Test Checklist v1.00.xlsx
+++ b/Secure D Web Application Security Test Checklist v1.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bankde/Desktop/work/wastc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A43B1F-3A05-3F47-82C0-E7BE5E0140D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1CBF68-3B60-A147-B651-6268B5430610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project information" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="307">
   <si>
     <t>Project Information</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>Insecure caching</t>
-  </si>
-  <si>
-    <t>Insecure usage of web storage</t>
   </si>
   <si>
     <t>[CWE-312, CWE-922]
@@ -3004,6 +3001,23 @@
 - Test with HTML tags: &lt;form&gt; &lt;a href&gt; &lt;iframe&gt;
 - Try DOM Clobbering for possible XSS
 - Tools: OWASP ZAP, nikto, manual review</t>
+  </si>
+  <si>
+    <t>Insecure usage of browser local storage</t>
+  </si>
+  <si>
+    <t>Insecure configuration of 3rd party services</t>
+  </si>
+  <si>
+    <t>- Incorrect ACL or privilege policy on 3rd party storage.
+    - Amazon (s3)
+    - Firebase database
+- Missing authorization control when using callback service
+    - LINE chatbot
+    - Dialogflow</t>
+  </si>
+  <si>
+    <t>The developer should review the security best practice guideline on each service that is integrated into the application.</t>
   </si>
 </sst>
 </file>
@@ -4547,7 +4561,7 @@
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4573,7 +4587,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4636,7 +4650,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -4649,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>170</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>171</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -4668,7 +4682,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -4684,7 +4698,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -4700,7 +4714,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -4716,7 +4730,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -4744,12 +4758,12 @@
         <v>26</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42" x14ac:dyDescent="0.15">
@@ -4760,7 +4774,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -4773,15 +4787,15 @@
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>254</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>255</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4802,13 +4816,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV22"/>
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4871,7 +4885,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -4887,7 +4901,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -4900,15 +4914,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>237</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>238</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="84" x14ac:dyDescent="0.15">
@@ -4919,7 +4933,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -4935,24 +4949,24 @@
         <v>37</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="26"/>
       <c r="C9" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="154" x14ac:dyDescent="0.15">
@@ -4960,15 +4974,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="112" x14ac:dyDescent="0.15">
@@ -4976,15 +4990,15 @@
         <v>7</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="98" x14ac:dyDescent="0.15">
@@ -4992,15 +5006,15 @@
         <v>8</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="140" x14ac:dyDescent="0.15">
@@ -5008,15 +5022,15 @@
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="98" x14ac:dyDescent="0.15">
@@ -5024,27 +5038,27 @@
         <v>10</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="154" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="26"/>
       <c r="C15" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="140" x14ac:dyDescent="0.15">
@@ -5052,15 +5066,15 @@
         <v>11</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="84" x14ac:dyDescent="0.15">
@@ -5068,15 +5082,15 @@
         <v>12</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="56" x14ac:dyDescent="0.15">
@@ -5084,15 +5098,15 @@
         <v>13</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.15">
@@ -5100,27 +5114,27 @@
         <v>14</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
       <c r="B20" s="23"/>
       <c r="C20" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="306" x14ac:dyDescent="0.15">
@@ -5128,15 +5142,15 @@
         <v>15</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="70" x14ac:dyDescent="0.15">
@@ -5144,15 +5158,31 @@
         <v>16</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+      <c r="A23" s="14">
+        <v>17</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -5196,7 +5226,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -5206,7 +5236,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -5239,15 +5269,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="126" x14ac:dyDescent="0.15">
@@ -5255,39 +5285,39 @@
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="17"/>
       <c r="F5" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="26"/>
       <c r="C6" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="98" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="26"/>
       <c r="C7" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="140" x14ac:dyDescent="0.15">
@@ -5295,63 +5325,63 @@
         <v>3</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A9" s="20"/>
       <c r="B9" s="26"/>
       <c r="C9" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="98" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="26"/>
       <c r="C10" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="56" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="B11" s="26"/>
       <c r="C11" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="26"/>
       <c r="C12" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="98" x14ac:dyDescent="0.15">
@@ -5359,15 +5389,15 @@
         <v>4</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="70" x14ac:dyDescent="0.15">
@@ -5375,15 +5405,15 @@
         <v>5</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42" x14ac:dyDescent="0.15">
@@ -5391,15 +5421,15 @@
         <v>6</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="70" x14ac:dyDescent="0.15">
@@ -5407,15 +5437,15 @@
         <v>7</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="154" x14ac:dyDescent="0.15">
@@ -5423,39 +5453,39 @@
         <v>8</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
       <c r="B18" s="26"/>
       <c r="C18" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="84" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
       <c r="B19" s="26"/>
       <c r="C19" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="140" x14ac:dyDescent="0.15">
@@ -5463,51 +5493,51 @@
         <v>9</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A21" s="20"/>
       <c r="B21" s="26"/>
       <c r="C21" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="112" x14ac:dyDescent="0.15">
       <c r="A22" s="20"/>
       <c r="B22" s="26"/>
       <c r="C22" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="56" x14ac:dyDescent="0.15">
       <c r="A23" s="20"/>
       <c r="B23" s="26"/>
       <c r="C23" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="126" x14ac:dyDescent="0.15">
@@ -5515,27 +5545,27 @@
         <v>10</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A25" s="20"/>
       <c r="B25" s="26"/>
       <c r="C25" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="56" x14ac:dyDescent="0.15">
@@ -5543,15 +5573,15 @@
         <v>11</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="112" x14ac:dyDescent="0.15">
@@ -5559,15 +5589,15 @@
         <v>12</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="112" x14ac:dyDescent="0.15">
@@ -5575,15 +5605,15 @@
         <v>13</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="126" x14ac:dyDescent="0.15">
@@ -5591,15 +5621,15 @@
         <v>14</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="70" x14ac:dyDescent="0.15">
@@ -5607,15 +5637,15 @@
         <v>15</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="84" x14ac:dyDescent="0.15">
@@ -5623,15 +5653,15 @@
         <v>16</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5654,11 +5684,11 @@
   </sheetPr>
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5675,7 +5705,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -5685,7 +5715,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -5718,15 +5748,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="140" x14ac:dyDescent="0.15">
@@ -5734,15 +5764,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="182" x14ac:dyDescent="0.15">
@@ -5750,15 +5780,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="126" x14ac:dyDescent="0.15">
@@ -5766,15 +5796,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="126" x14ac:dyDescent="0.15">
@@ -5782,15 +5812,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="293" x14ac:dyDescent="0.15">
@@ -5798,15 +5828,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="182" x14ac:dyDescent="0.15">
@@ -5814,15 +5844,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="112" x14ac:dyDescent="0.15">
@@ -5830,39 +5860,39 @@
         <v>8</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="26"/>
       <c r="C12" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="84" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
       <c r="B13" s="26"/>
       <c r="C13" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="126" x14ac:dyDescent="0.15">
@@ -5870,15 +5900,15 @@
         <v>9</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="332" x14ac:dyDescent="0.15">
@@ -5886,15 +5916,15 @@
         <v>9</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="154" x14ac:dyDescent="0.15">
@@ -5902,15 +5932,15 @@
         <v>10</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="98" x14ac:dyDescent="0.15">
@@ -5918,15 +5948,15 @@
         <v>11</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="84" x14ac:dyDescent="0.15">
@@ -5934,15 +5964,15 @@
         <v>12</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="168" x14ac:dyDescent="0.15">
@@ -5950,15 +5980,15 @@
         <v>13</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="168" x14ac:dyDescent="0.15">
@@ -5966,15 +5996,15 @@
         <v>14</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="196" x14ac:dyDescent="0.15">
@@ -5982,15 +6012,15 @@
         <v>15</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="210" x14ac:dyDescent="0.15">
@@ -5998,15 +6028,15 @@
         <v>16</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="84" x14ac:dyDescent="0.15">
@@ -6014,15 +6044,15 @@
         <v>17</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="112" x14ac:dyDescent="0.15">
@@ -6030,15 +6060,15 @@
         <v>18</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="98" x14ac:dyDescent="0.15">
@@ -6046,15 +6076,15 @@
         <v>19</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="98" x14ac:dyDescent="0.15">
@@ -6062,15 +6092,15 @@
         <v>20</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="98" x14ac:dyDescent="0.15">
@@ -6078,15 +6108,15 @@
         <v>21</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="140" x14ac:dyDescent="0.15">
@@ -6094,15 +6124,15 @@
         <v>22</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="210" x14ac:dyDescent="0.15">
@@ -6110,15 +6140,15 @@
         <v>23</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="112" x14ac:dyDescent="0.15">
@@ -6126,15 +6156,15 @@
         <v>24</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="70" x14ac:dyDescent="0.15">
@@ -6142,39 +6172,39 @@
         <v>25</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A32" s="20"/>
       <c r="B32" s="26"/>
       <c r="C32" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="84" x14ac:dyDescent="0.15">
       <c r="A33" s="20"/>
       <c r="B33" s="26"/>
       <c r="C33" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -6218,7 +6248,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -6228,7 +6258,7 @@
     </row>
     <row r="2" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -6261,15 +6291,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="345" x14ac:dyDescent="0.15">
@@ -6277,15 +6307,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="84" x14ac:dyDescent="0.15">
@@ -6293,15 +6323,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="112" x14ac:dyDescent="0.15">
@@ -6309,15 +6339,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="84" x14ac:dyDescent="0.15">
@@ -6325,15 +6355,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="70" x14ac:dyDescent="0.15">
@@ -6341,15 +6371,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6393,7 +6423,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -6403,7 +6433,7 @@
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -6436,15 +6466,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42" x14ac:dyDescent="0.15">
@@ -6452,15 +6482,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="56" x14ac:dyDescent="0.15">
@@ -6468,15 +6498,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="70" x14ac:dyDescent="0.15">
@@ -6484,15 +6514,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.15">
@@ -6500,15 +6530,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.15">
@@ -6516,15 +6546,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42" x14ac:dyDescent="0.15">
@@ -6532,15 +6562,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="56" x14ac:dyDescent="0.15">
@@ -6548,15 +6578,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Secure D Web Application Security Test Checklist v1.00.xlsx
+++ b/Secure D Web Application Security Test Checklist v1.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bankde/Desktop/work/wastc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1CBF68-3B60-A147-B651-6268B5430610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF272C62-841C-0947-AA6E-C194ADC8152A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project information" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="324">
   <si>
     <t>Project Information</t>
   </si>
@@ -624,38 +624,7 @@
 Developer and security team should review the logging design. Consider using code instead of full messages, suppress several duplicate log messages into summary, etc.</t>
   </si>
   <si>
-    <t>- This scan aims to discover hidden guessable directories and files.
-- Tools: dirbuster</t>
-  </si>
-  <si>
     <t>TLS/SSL Scan</t>
-  </si>
-  <si>
-    <t>- This scan aims to check TLS/SSL library and configuration.
-- Security team should discuss any issues with business team to prevent impact on customers. For example, TLS1.0 is considered vulnerable but must be enable for user with IE6 in Windows XP.
-- Tools: testssl, sslscan, https://ssllabs.com
-- For ssllabs, check “Do not show result”</t>
-  </si>
-  <si>
-    <t>- Search engines
-- Third party services: Massive DNS data
-    - virustotal, DNSdumpster, Sublist3r
-- Certificate Transparency (CT)
-    - crt.sh, censys.io, google.com/transparencyreport/https/ct
-- Dictionary based enumeration
-- DNSRecon
-- Permutation/Mutation scan of known domains
-    - Altdns
-- Finding Autonomous System (AS) Numbers
-    - asn.cymru.com/cgi-bin/whois.cgi
-- Misconfigured Zone transfer DNS
-    - dig + multi AXFR @ns1.example.com example.com
-- DNSSEC zones "walk"
-    - ldns-walk (on NSEC records)
-    - crack hash of NSEC3 records
-        - nsec3walker, nsec3map
-- Internet wide scan data project
-    - Forward DNS dataset (Project Sonar)</t>
   </si>
   <si>
     <t>- Google search operators
@@ -665,14 +634,6 @@
   <si>
     <t>Developer should remove any sensitive information from public page of your application so that it can not be accessed by anonymous user, including search engine.
 For any cached information or 3rd party site, consider contact Google support team. https://support.google.com/legal/troubleshooter/1114905</t>
-  </si>
-  <si>
-    <t>- Some paths are hidden in HTML, Javascript, CSS. Many are not required by business requirement.
-- Some paths are designed for admin/debugging but lack of authentication and authorization.
-- Some endpoints are hidden from user by using unusual port.
-- robots.txt
-- API documentations
-- Tools: dirbuster, LinkFinder, any spider/crawler, nmap</t>
   </si>
   <si>
     <t>- While it might be correct by business requirement or implementation, some sensitive information should NOT be shown; such as password of customers.
@@ -882,43 +843,1692 @@
 - Missing 2-factor authentication on critical function. [OPTIONAL]</t>
   </si>
   <si>
+    <t>- Allow attacker to send request to other targets as if the request is from the application server.
+    - Direct URL input
+        - Callback / Webhook
+        - Configuration
+    - XXE from XML upload
+    - Image/Video upload - E.g. metadata of JPG, SVG, etc.
+    - Automatic web crawler, proxy, file scanner
+- Should NOT allow local network enumeration
+- Improper target validation
+    - IP obfuscation
+    - DNS resolve to local IP</t>
+  </si>
+  <si>
+    <t>- Two or more workers/threads are accessing same resource at the same time without proper control or locking.
+- Possible race condition resources:
+    - Database data
+    - Files
+    - Global variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross-site Scripting inclusion (XSSI) </t>
+  </si>
+  <si>
+    <t>- Javascript inclusion (such as .js, .jsp, JSONP and incorrect json format) are not enforced with Single Origin Policy (SOP); thus can be included by external sites which could lead to information disclosure.
+- Must NOT store any sensitive information in Javascript files, either static or dynamics, authenticated or unauthenticated.</t>
+  </si>
+  <si>
+    <t>[CWE-200]
+Do not store user or server sensitive information in Javascript files and JSONP.</t>
+  </si>
+  <si>
+    <t>Missing user input encoding or validation for logging</t>
+  </si>
+  <si>
+    <t>Accept logs from untrusted component</t>
+  </si>
+  <si>
+    <t>Server should properly encode user input that uses in logs to ensure the integrity of logging format.</t>
+  </si>
+  <si>
+    <t>Logs MUST be created on trusted components to ensure logging reliability.</t>
+  </si>
+  <si>
+    <t>Remove ability to delete logs from untrusted user. Logs should NOT be deleted without recommendations from security team and/or regulation review team. Consider archiving the logs instead.</t>
+  </si>
+  <si>
+    <t>- Application MUST NOT trust user input as identity in authentication or logging without proper verification.
+- Application MUST log/monitor user. Do not log using changeable data, such as username, Email, deviceID, etc.</t>
+  </si>
+  <si>
+    <t>- While logging a lot of information can be useful, logging sensitive information could lead to information disclosure.</t>
+  </si>
+  <si>
+    <t>- Untrusted actor MUST NOT be able to delete logs.</t>
+  </si>
+  <si>
+    <t>- Use of println or stdout print in logging.</t>
+  </si>
+  <si>
+    <t>- The malicious actor could create fake log entries from untrusted component.</t>
+  </si>
+  <si>
+    <t>- Original user input could break the logs format and lead to log poisoning.</t>
+  </si>
+  <si>
+    <t>- Excessive logging can become crucial obstacles in monitoring process</t>
+  </si>
+  <si>
+    <t>Improper modification of object attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[CWE-915]
+It is recommended to use framework's feature to add specification of whitelisted attributes that are allowed modification on each endpoint. </t>
+  </si>
+  <si>
+    <t>Weak credentials on management  accounts</t>
+  </si>
+  <si>
+    <t>Both developer and operation team should reviewed if management accounts can be disabled. Accounts that are needed should be protected with strong credentials.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data caching</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>User information including personal images should not be cached in browser. 
+- Any authorized page should not be cached. Caching the page could give attacker information on attack surface after login.
+- Check caching configuration
+- Tools: OWASP ZAP (scanner), manual review</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[CWE-525]
+Do not store unnecessarily sensitive information in the cache. If storing sensitive cache is required by business requirement (e.g. offline availability), data should be encrypted.
+To prevent cache on client browser, add this header to all responses with sensitive data.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cache-Control: no-cache, no-store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+https://developer.mozilla.org/en-US/docs/Web/HTTP/Headers/Cache-Control</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Text caching
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- “Remember Me” function could lead to username disclosure.
+- "Auto-complete" attribute could lead to user form data disclosure.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">While "Remember me" and "Auto-complete" improve user interface and experience, it could lead to user data disclosure. Remove "Remember me" function from login form and include </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>autocomplete="off"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> into every form input.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Weak Cryptography usage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- Check for weak encryption mode.
+- Check for possible cryptography attacks.
+    - Padding Oracle Attack
+    - Length Extension Attack</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[CWE-287]
+Developer MUST follow the regulation according to your business.
+It is advised to follow the regulation or NIST standard.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://pages.nist.gov/800-63-3/sp800-63-3.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Insufficient identity verification
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- For regular application, Email should be validated before allowing user to login.
+- For semi-private application, one-time registration token could be used.
+- The process MUST follow the identity level by design. E.g. correctly verify the fingerprint, etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Improper identity identifier
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Registration should generate new unique ID. Could it be userID, username or Email. 
+- The registration process MUST always abort the process when duplicated identity is detected.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Improper identity control
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Application should NOT allow authentication identity (username or Email) change.
+- Application should NOT allow username change.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Inconsistent authentication design
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Some endpoints, such as auto-login after registration, cross-platform login, could be missing proper authentication process that lead to an authentication bypass.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Insufficient authentication data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- MUST NOT solely use device information (e.g. IMEI, etc) to authenticate user. 
+- The authentication process MUST NOT be processed on client-side device or browser.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Weak authentication methods
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Using weak authentication process; such as publicly known information or guessable choice questions.
+- Using inappropriate authentication methods.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Weak authentication methods
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Basic HTTP authentication should be avoided.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Missing authentication in trusted network
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Vulnerable to any malicious actor in same subnet.
+- Could be vulnerable to DNS rebinding.
+- Vulnerable to Server Side Request Forgery.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Weak cookie implementation and design
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- The cookie (session identifier) SHOULD be at least 128 bits long. [Year 2019]
+- Correct cookie format MUST NOT be predictable.
+- The data MUST NOT be able to modify by user. This can be prevented by either using cryptographically generated cookie or properly signed JWT.
+- Check mapping between cookie to session.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Weak cookie configuration
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Check cookie scope (Domain, Path)
+- Check cookie configuration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Recommendation for cookie attributes:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://www.owasp.org/index.php/Testing_for_cookies_attributes_(OTG-SESS-002)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Incorrect use of cookie or token
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Should not store any sensitive information in cleartext in a cookie.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Session lifecycle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Missing session timeout
+- Server should be able to control (create/edit/destroy) any user session; stateful.
+- Idle session should be revoked after appropriate time.
+- Logout MUST revoke the current session.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Session fixation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Previous session should be reissued every times there is any privilege change; e.g. from anonymous user to authenticated user.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Improper session implementation (Session puzzling)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Different applications (including some different data flows) should have different isolated session; e.g. session during account registration should not be shared with session after authentication.
+- Session data MUST NOT be leaked to user.
+- Session data MUST NOT be accessed directly from user. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Session as global variables)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[CWE-488]
+If configuration or implementing the session module is necessary, developer should follow the OWASP standard.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://cheatsheetseries.owasp.org/cheatsheets/Session_Management_Cheat_Sheet.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Session concurrency design
+- Concurrent session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/login should be avoided.
+- Optional: Users should have ability to control their own session. (Login, Monitoring, Destroy)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Missing sequential control
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Some applications have several states within a single workflow, such as input validation step and account registration step.
+- Skip the state
+Normal: A -&gt; B -&gt; C -&gt; D
+Vulnerable: A -&gt; B -&gt; D 
+- Repeat the state
+Normal: A -&gt; B -&gt; C -&gt; D
+Vulnerable: A -&gt; B -&gt; C -&gt; A -&gt; D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Missing replay protection
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Missing double submitted prevention on critical function. (E.g. Refresh page after transferring the money)</t>
+    </r>
+  </si>
+  <si>
+    <t>[CWE-307]
+Common protection mechanisms are:
+Implementing rate limit 
+Account lockout
+Requiring human interaction (e.g.  strong captcha)
+Disconnecting suspicious user from the internal environment.
+Notify or require strong identity verification</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[CWE-640]
+For secure account recovery process, it is recommended to follow the guide from OWASP.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://cheatsheetseries.owasp.org/cheatsheets/Forgot_Password_Cheat_Sheet.html</t>
+    </r>
+  </si>
+  <si>
+    <t>[CWE-89]
+There are several possible solutions for SQL injection depends on the situations:
+Do NOT concatenate user input directly into the query. Such as, ASC, DESC token; use if/else clause to control the query.
+Using only whitelisted known-good characters from the user input.
+Use prepared statements query.
+Escape the characters before the query.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Null byte
+    - page=/etc/passwd%00
+    - page=/etc/password%2500
+- Path truncation
+    - page=/etc/passwd…[any]…
+    - page=../../../[any]/../../../etc/passwd
+    - page=/etc/passwd/../../../[any]/../../
+    - page=x/../admin.html/././././[any]/././././
+    - PS: this will </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> work
+    x//..//admin.html//../././/
+- Improper file extension detection
+    - /tmp/shellCode.jpg.exe
+- Tools: OWASP ZAP, nikto, manual review</t>
+    </r>
+  </si>
+  <si>
+    <t>Reference:
+Unauthorized access to file or directory
+File extension bypass</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Malware upload
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Should NOT allow upload of dangerous file that can be downloaded by other users [Optional]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Some web content or error message are critical to be precise so that other users are informed correctly. These information should not be accepted from user input.
+    - Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“This page {{user.input.page}} is not available”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> could be manipulated into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“This page {is not available. Click here &lt;attacker.web&gt; to proceed.&lt;br&gt;…30 times…&lt;br&gt;}} is not available”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- String concatenation without escape of control characters on client side.
+    - HTTP &amp; = % #
+    - JSON " ' , { } \
+    - XML &lt; &gt; /
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Improper handling of duplicate key/input parameter.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>The application should NEVER interpret multiple values of the same key/parameter. Accepting multiple values as array could lead to input validation bypass.
+- The application MUST be consistent whether to use first occurrence or the latter in the whole process. The issue will occur if application validates on first occurrence but actual operation uses the second.
+- The application can decide to reject malicious or malformed requests.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Mass assignment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- The application accepts user input with multiple attributes or fields modification without proper control which attribute should be allowed or disallowed.
+- Happens to some framework with automate input binding to the object's model or object injection.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Incorrect integer range
+    - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Some business logic such as "Deposit", "Withdrawn"  always expect positive integer value. Using negative value as input could lead to serious business impact.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Some data should NOT be zero or negative.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Invalid date time
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Invalid index of array or data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Any integer should have range limit control. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Incorrect cumulative value
+    - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Some values such as group of percentage values should be cumulated to exact 100%.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Overall sum values should be calculated correctly on server side.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Incorrect dependency of values
+    - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Some values have dependency over others; such as Country, Post code and City.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Incorrect data type and format
+    - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">MUST NOT accept string in the integer field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Exponential integer format - 10E100
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Incorrect type casting or rounding
+    - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">In some environment, application might have to accept integer with very high decimal digits. It is advised to accept these values as String in API gateway and properly cast to proper type at the processing endpoint.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Incorrect casting between integer, float, boolean.</t>
+    </r>
+  </si>
+  <si>
+    <t>Secure D Web Application Security Test Checklist v1.00</t>
+  </si>
+  <si>
+    <t>Insecure usage of browser local storage</t>
+  </si>
+  <si>
+    <t>Insecure configuration of 3rd party services</t>
+  </si>
+  <si>
+    <t>- Incorrect ACL or privilege policy on 3rd party storage.
+    - Amazon (s3)
+    - Firebase database
+- Missing authorization control when using callback service
+    - LINE chatbot
+    - Dialogflow</t>
+  </si>
+  <si>
+    <t>The developer should review the security best practice guideline on each service that is integrated into the application.</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>- This scan aims to discover any straightforward vulnerabilities and HTTP headers configuration.
+- Avoid this scan in production.</t>
+  </si>
+  <si>
+    <t>- OWASP ZAP (scanner)</t>
+  </si>
+  <si>
+    <t>- This scan aims to check TLS/SSL library and configuration.
+- Security team should discuss any issues with business team to prevent impact on customers. For example, TLS1.0 is considered vulnerable but must be enable for user with IE6 in Windows XP.</t>
+  </si>
+  <si>
+    <t>- testssl
+- sslscan
+- https://ssllabs.com
+For ssllabs, check “Do not show result”</t>
+  </si>
+  <si>
+    <t>- Nessus
+- OpenVAS</t>
+  </si>
+  <si>
+    <t>- This scan aims to discover any service/server vulnerabilities.
+- Avoid this scan in production.</t>
+  </si>
+  <si>
+    <t>- dirbuster</t>
+  </si>
+  <si>
+    <t>- This scan aims to discover hidden guessable directories and files.</t>
+  </si>
+  <si>
+    <t>- nmap
+- Nessus</t>
+  </si>
+  <si>
+    <t>- This scan aims to gather information of open ports from web server.
+- For best practice, only HTTP port should be available. 
+- Database port should not be accessible from internet.</t>
+  </si>
+  <si>
+    <t>- This process aims to increase overall attack surface of the system by targetting other available web sites.
+- Great for blackbox testing and bug bounty.</t>
+  </si>
+  <si>
+    <t>- Many sensitive information can be found in search engine database. Instead of manually search the hidden path or directory, the search engine sometimes has gathered those information for years from different sources.</t>
+  </si>
+  <si>
+    <t>- Check for any visible web components
+- Compare with the available vulnerabilities database</t>
+  </si>
+  <si>
+    <t>- OWASP ZAP</t>
+  </si>
+  <si>
+    <t>- OWASP ZAP
+- THC-Hydra</t>
+  </si>
+  <si>
+    <t>- Many components have default management accounts, such as root, admin, with weak credentials.</t>
+  </si>
+  <si>
+    <t>- dirbuster
+- Linkfinder
+- any spider/crawler
+- nmap</t>
+  </si>
+  <si>
+    <t>- Some paths are hidden in HTML, Javascript, CSS. Many are not required by business requirement.
+- Some paths are designed for admin/debugging but lack of authentication and authorization.
+- Some endpoints are hidden from user by using unusual port.
+- robots.txt
+- API documentations</t>
+  </si>
+  <si>
+    <t>- OWASP ZAP (proxy)</t>
+  </si>
+  <si>
     <t>- Some informations are hidden in HTML, Javascript, CSS. E.g. comment, form data, variable name/value.
-- Some informations are leaked in AJAX/json request. Many are not required by business requirement.
-- Tools: OWASP ZAP (proxy), manual review (view source)</t>
-  </si>
-  <si>
-    <t>- Browser local storage should not contain any sensitive information without proper encryption.
-- Tools: manual review</t>
+- Some informations are leaked in AJAX/json request. Many are not required by business requirement.</t>
+  </si>
+  <si>
+    <t>- Browser local storage should not contain any sensitive information without proper encryption.</t>
   </si>
   <si>
     <t>- User error messages which might give attacker information of users (e.g. Email, Username).
     - Incorrect login error message should be “Your username/password is incorrect” instead of telling attacker “Password is incorrect” which indicates that username exists.
-- User error messages which expose application or server information. (e.g. mysql version, PHP version, etc)
-- Tools: manual review</t>
-  </si>
-  <si>
-    <t>- Any leftover debug or verbose data. (e.g. phpinfo page)
-- Tools: manual review</t>
+- User error messages which expose application or server information. (e.g. mysql version, PHP version, etc)</t>
+  </si>
+  <si>
+    <t>- Any leftover debug or verbose data. (e.g. phpinfo page)</t>
   </si>
   <si>
     <t>- Any informations that give attacker the version of backend web server application. (e.g. server banner, proxy header, NET framework header, etc)
 - Source code disclosure
 - Backup files disclosure
-- Developer or API documentations
-- Tools: OWASP ZAP (scanner), manual review</t>
+- Developer or API documentations</t>
+  </si>
+  <si>
+    <t>- OWASP ZAP (scanner, proxy)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Inappropriate use of HTTP methods
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Incorrect use of GET/POST/PUT/DELETE
+- Misconfiguration or arbitrary HTTP method (e.g. TRACE)</t>
+    </r>
+  </si>
+  <si>
+    <t>- OWASP ZAP (HTTP history)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sensitive data in GET parameters
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Sensitive information should not be sent through GET parameters since it will be cached by browser, any middle proxy, log, web server, etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>- OWASP ZAP (HTTP history, scanner, proxy)</t>
   </si>
   <si>
     <t>- Check referrer header configuration
 - Check any GET parameter and URL for sensitive information.
-- Tools: OWASP ZAP (HTTP history, scanner, proxy), manual review</t>
-  </si>
-  <si>
-    <t>- Application that accepts any user parameter that redirect to 3rd party or any website without proper validation.
-- Tools: OWASP ZAP (scanner), manual review</t>
-  </si>
-  <si>
-    <t>- Application MUST always use encrypted transmission. This includes both GET/POST methods with/without sensitive information.
-- Tools: OWASP ZAP (scanner), manual review</t>
+- For the proof of concept, aim for any external hyperlink.</t>
+  </si>
+  <si>
+    <t>- Application that accepts any user parameter that redirect to 3rd party or any website without proper validation.</t>
+  </si>
+  <si>
+    <t>- Application MUST always use encrypted transmission. This includes both GET/POST methods with/without sensitive information.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Weak Cipher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- Recommend SSL cipher is now TLS1.3 or TLS1.2
+TLS1.0 or below (SSLv3) are considered vulnerable.
+- Check for weak encryption mode.</t>
+    </r>
   </si>
   <si>
     <t>- Cross Origin Resource Sharing (CORS)
@@ -941,51 +2551,135 @@
 - Strict-Transport-Security (HSTS)
 - Public-Key-Pins (HPKP) [DEPRECATED]
 - Expect-CT
-- Content Security Policy (CSP)
-- Tools: OWASP ZAP (scanner), manual review</t>
+- Content Security Policy (CSP)</t>
   </si>
   <si>
     <t>- Timing attack
     - Server authentication - User/password login
 - Client information disclosure - CSS
-- Cache poisoning
-- Tools: OWASP ZAP (proxy), manual review</t>
-  </si>
-  <si>
-    <t>- This scan aims to discover any service/server vulnerabilities.
-- Avoid this scan in production.
-- Tools: Nessus, OpenVAS</t>
-  </si>
-  <si>
-    <t>- This scan aims to discover any straightforward vulnerabilities and HTTP headers configuration.
-- Avoid this scan in production.
-- Tools: OWASP ZAP (scanner)</t>
-  </si>
-  <si>
-    <t>- Check for any visible web components
-- Compare with the available vulnerabilities database
-- Tools: OWASP ZAP (scanner), manual review</t>
-  </si>
-  <si>
-    <t>- Attacker has ability to change user data when user visits malicious site.
-- Missing CSRF token validation
-- Improper CSRF control
-    - Referer header check
-    - Insecure random token
-    - CSRF token disclosure
-- Incorrect handling of HTTP method (e.g. HEAD, OPTION)
-- Tools: OWASP ZAP, nikto, manual review</t>
-  </si>
-  <si>
-    <t>- Unauthorized code execution
-    - eval, assert, deserialized
-- Server-side template injection
-    - Happens from using invalidated user input in template
-$output = $twig-&gt;render($_GET['custom_email'], array("first_name" =&gt; $user.first_name) );
-    - Payload: $(7*7}, etc.
-    - Example: Mako, Jinja2, Smarty, Twig, etc.
-- Regex injection
-- Tools: OWASP ZAP, nikto, manual review</t>
+- Cache poisoning</t>
+  </si>
+  <si>
+    <t>- OWASP ZAP
+- nikto</t>
+  </si>
+  <si>
+    <t>- OWASP ZAP
+- nikto
+- SQLmap</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- SQL injection
+    - Boolean based
+    - Timed based
+    - Error based
+    - Out-of-band
+    - Stacked queries
+    - Second order injection
+    - Control characters: ' " \ ( ), GBK unicode
+    - Comment characters: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t># --</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- NoSQL injection
+    - LDAP: ( ) &amp; |
+    - MongoDB: ' " \ ; { }
+    - XPath: ' " \ : { } ,
+    - SMTP: \r \n :</t>
+    </r>
   </si>
   <si>
     <t>- Unauthorized execution of shell command - shell_exec
@@ -996,12 +2690,40 @@
         - Using IFS
         $ IFS=:
         $ a=cat:file.txt
-        $ $a
-- Tools: OWASP ZAP, nikto, manual review</t>
-  </si>
-  <si>
-    <t>- Use serialization from invalidated user input
-- Tools: OWASP ZAP, nikto, manual review</t>
+        $ $a</t>
+  </si>
+  <si>
+    <t>- Unauthorized code execution
+    - eval, assert, deserialized
+- Server-side template injection
+    - Happens from using invalidated user input in template
+$output = $twig-&gt;render($_GET['custom_email'], array("first_name" =&gt; $user.first_name) );
+    - Payload: $(7*7}, etc.
+    - Example: Mako, Jinja2, Smarty, Twig, etc.
+- Regex injection</t>
+  </si>
+  <si>
+    <t>- Use serialization from invalidated user input</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- XML input containing a reference to an external entity is processed by a weakly configured XML parser.
+- XXE is enabled by XML parser
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;?xml version="1.0" encoding="ISO-8859-1"?&gt;
+ &lt;!DOCTYPE foo [  
+   &lt;!ELEMENT foo ANY &gt;
+   &lt;!ENTITY xxe SYSTEM "file:///etc/passwd" &gt;]&gt;&lt;foo&gt;&amp;xxe;&lt;/foo&gt;</t>
+    </r>
   </si>
   <si>
     <t>- Unauthorized acess to local server file or directory
@@ -1023,8 +2745,57 @@
 - Double URL encoding
 - Overlonging UTF-8 Unicode
 - Illegal Unicode
-- File extension bypass (Ref: File extension bypass)
-- Tools: OWASP ZAP, nikto, manual review</t>
+- File extension bypass (Ref: File extension bypass)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Insecure upload path
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- File uploaded directly to file system
+- Missing file name validation
+    - Special characters
+    - Path traversal (Ref: Unauthorized access to file or directory)
+    - Allow same file path with previously uploaded file
+    - File extension bypass (Ref: File extension bypass)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Control of resources
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- No rate limit control
+- No upload size control</t>
+    </r>
   </si>
   <si>
     <t>- Script injection that aims on client side
@@ -1045,23 +2816,159 @@
     - JSFUCK
     - String.fromCharCode
     - Malformed HTML structure
-    &lt;noscript&gt;&lt;p title="&lt;/noscript&gt;&lt;img src=x onerror=alert(1)&gt;"&gt;
-- Tools: OWASP ZAP, nikto, manual review</t>
+    &lt;noscript&gt;&lt;p title="&lt;/noscript&gt;&lt;img src=x onerror=alert(1)&gt;"&gt;</t>
+  </si>
+  <si>
+    <t>- While not as critical as XSS, allowing HTML structure injection gives attacker ability to insert malicious contents or redirect traffic to malicious site.
+- Test with HTML tags: &lt;form&gt; &lt;a href&gt; &lt;iframe&gt;
+- Try DOM Clobbering for possible XSS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Incorrect or misconfiguration lead to directory listing
+- Access to URL as a directory
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://example/img/</t>
+    </r>
+  </si>
+  <si>
+    <t>- Attacker has ability to change user data when user visits malicious site.
+- Missing CSRF token validation
+- Improper CSRF control
+    - Referer header check
+    - Insecure random token
+    - CSRF token disclosure
+- Incorrect handling of HTTP method (e.g. HEAD, OPTION)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- WebDAV extension could permit the following methods:
+    - PROPFIND, PROPPATCH, MKCOL, COPY, MOVE, LOCK, UNLOCK
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Incorrect usage of HTTP methods
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - GET, POST, PUT, PATCH, DELETE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Enable of insecure HTTP methods
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - TRACE</t>
+    </r>
   </si>
   <si>
     <t>- Web application written with c, c++
 - Using vulnerable programming language versions of Python, NodeJS, etc.
-- Test by long, gibberish input
-- Tools: OWASP ZAP, manual review</t>
+- Test by long, gibberish input</t>
   </si>
   <si>
     <t>- Incorrect usage of string format (printf, sprintf, etc)
-- Control characters: %s %d %f %08x etc
-- Tools: OWASP ZAP, manual review</t>
-  </si>
-  <si>
-    <t>- Application crashes from invalid input.
-- Tools: OWASP ZAP, manual review</t>
+- Control characters: %s %d %f %08x etc</t>
+  </si>
+  <si>
+    <t>- Application crashes from invalid input.</t>
   </si>
   <si>
     <t>- User-Agent manipulation
@@ -1069,1962 +2976,40 @@
 - Content-Type
 - Accept (Content-type response)
 - Accept Encoding
-- X-Forwarded-For
-- Tools: OWASP ZAP, manual review</t>
-  </si>
-  <si>
-    <t>- Allow attacker to send request to other targets as if the request is from the application server.
-    - Direct URL input
-        - Callback / Webhook
-        - Configuration
-    - XXE from XML upload
-    - Image/Video upload - E.g. metadata of JPG, SVG, etc.
-    - Automatic web crawler, proxy, file scanner
-- Should NOT allow local network enumeration
-- Improper target validation
-    - IP obfuscation
-    - DNS resolve to local IP</t>
-  </si>
-  <si>
-    <t>- Two or more workers/threads are accessing same resource at the same time without proper control or locking.
-- Possible race condition resources:
-    - Database data
-    - Files
-    - Global variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cross-site Scripting inclusion (XSSI) </t>
-  </si>
-  <si>
-    <t>- Javascript inclusion (such as .js, .jsp, JSONP and incorrect json format) are not enforced with Single Origin Policy (SOP); thus can be included by external sites which could lead to information disclosure.
-- Must NOT store any sensitive information in Javascript files, either static or dynamics, authenticated or unauthenticated.</t>
-  </si>
-  <si>
-    <t>[CWE-200]
-Do not store user or server sensitive information in Javascript files and JSONP.</t>
-  </si>
-  <si>
-    <t>Missing user input encoding or validation for logging</t>
-  </si>
-  <si>
-    <t>Accept logs from untrusted component</t>
-  </si>
-  <si>
-    <t>Server should properly encode user input that uses in logs to ensure the integrity of logging format.</t>
-  </si>
-  <si>
-    <t>Logs MUST be created on trusted components to ensure logging reliability.</t>
-  </si>
-  <si>
-    <t>Remove ability to delete logs from untrusted user. Logs should NOT be deleted without recommendations from security team and/or regulation review team. Consider archiving the logs instead.</t>
-  </si>
-  <si>
-    <t>- Application MUST NOT trust user input as identity in authentication or logging without proper verification.
-- Application MUST log/monitor user. Do not log using changeable data, such as username, Email, deviceID, etc.</t>
-  </si>
-  <si>
-    <t>- While logging a lot of information can be useful, logging sensitive information could lead to information disclosure.</t>
-  </si>
-  <si>
-    <t>- Untrusted actor MUST NOT be able to delete logs.</t>
-  </si>
-  <si>
-    <t>- Use of println or stdout print in logging.</t>
-  </si>
-  <si>
-    <t>- The malicious actor could create fake log entries from untrusted component.</t>
-  </si>
-  <si>
-    <t>- Original user input could break the logs format and lead to log poisoning.</t>
-  </si>
-  <si>
-    <t>- Excessive logging can become crucial obstacles in monitoring process</t>
-  </si>
-  <si>
-    <t>Improper modification of object attributes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[CWE-915]
-It is recommended to use framework's feature to add specification of whitelisted attributes that are allowed modification on each endpoint. </t>
-  </si>
-  <si>
-    <t>Weak credentials on management  accounts</t>
-  </si>
-  <si>
-    <t>- Many components have default management accounts, such as root, admin, with weak credentials.
-- Tools: OWASP ZAP, THC-Hydra</t>
-  </si>
-  <si>
-    <t>Both developer and operation team should reviewed if management accounts can be disabled. Accounts that are needed should be protected with strong credentials.</t>
-  </si>
-  <si>
-    <t>- This scan aims to gather information of open ports from web server.
-- For best practice, only HTTP port should be available. 
-- Database port should not be accessible from internet.
-- Tools: nmap, Nessus</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data caching</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>User information including personal images should not be cached in browser. 
-- Any authorized page should not be cached. Caching the page could give attacker information on attack surface after login.
-- Check caching configuration
-- Tools: OWASP ZAP (scanner), manual review</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[CWE-525]
-Do not store unnecessarily sensitive information in the cache. If storing sensitive cache is required by business requirement (e.g. offline availability), data should be encrypted.
-To prevent cache on client browser, add this header to all responses with sensitive data.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cache-Control: no-cache, no-store</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-https://developer.mozilla.org/en-US/docs/Web/HTTP/Headers/Cache-Control</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Text caching
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- “Remember Me” function could lead to username disclosure.
-- "Auto-complete" attribute could lead to user form data disclosure.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">While "Remember me" and "Auto-complete" improve user interface and experience, it could lead to user data disclosure. Remove "Remember me" function from login form and include </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>autocomplete="off"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> into every form input.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Inappropriate use of HTTP methods
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Incorrect use of GET/POST/PUT/DELETE
-- Misconfiguration or arbitrary HTTP method (e.g. TRACE)
-- Tools: OWASP ZAP (scanner, proxy), manual review</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Sensitive data in GET parameters
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Sensitive information should not be sent through GET parameters since it will be cached by browser, any middle proxy, log, web server, etc.
-- Tools: OWASP ZAP (HTTP history), manual review</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Weak Cipher</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-- Recommend SSL cipher is now TLS1.3 or TLS1.2
-TLS1.0 or below (SSLv3) are considered vulnerable.
-- Check for weak encryption mode.
-- Tools: testssl, sslscan, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>https://ssllabs.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Weak Cryptography usage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-- Check for weak encryption mode.
-- Check for possible cryptography attacks.
-    - Padding Oracle Attack
-    - Length Extension Attack</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[CWE-287]
-Developer MUST follow the regulation according to your business.
-It is advised to follow the regulation or NIST standard.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>https://pages.nist.gov/800-63-3/sp800-63-3.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Insufficient identity verification
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- For regular application, Email should be validated before allowing user to login.
-- For semi-private application, one-time registration token could be used.
-- The process MUST follow the identity level by design. E.g. correctly verify the fingerprint, etc.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Improper identity identifier
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Registration should generate new unique ID. Could it be userID, username or Email. 
-- The registration process MUST always abort the process when duplicated identity is detected.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Improper identity control
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Application should NOT allow authentication identity (username or Email) change.
-- Application should NOT allow username change.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Inconsistent authentication design
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Some endpoints, such as auto-login after registration, cross-platform login, could be missing proper authentication process that lead to an authentication bypass.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Insufficient authentication data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- MUST NOT solely use device information (e.g. IMEI, etc) to authenticate user. 
-- The authentication process MUST NOT be processed on client-side device or browser.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Weak authentication methods
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Using weak authentication process; such as publicly known information or guessable choice questions.
-- Using inappropriate authentication methods.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Weak authentication methods
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Basic HTTP authentication should be avoided.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Missing authentication in trusted network
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Vulnerable to any malicious actor in same subnet.
-- Could be vulnerable to DNS rebinding.
-- Vulnerable to Server Side Request Forgery.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Weak cookie implementation and design
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- The cookie (session identifier) SHOULD be at least 128 bits long. [Year 2019]
-- Correct cookie format MUST NOT be predictable.
-- The data MUST NOT be able to modify by user. This can be prevented by either using cryptographically generated cookie or properly signed JWT.
-- Check mapping between cookie to session.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Weak cookie configuration
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Check cookie scope (Domain, Path)
-- Check cookie configuration</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Recommendation for cookie attributes:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>https://www.owasp.org/index.php/Testing_for_cookies_attributes_(OTG-SESS-002)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Incorrect use of cookie or token
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Should not store any sensitive information in cleartext in a cookie.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Session lifecycle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Missing session timeout
-- Server should be able to control (create/edit/destroy) any user session; stateful.
-- Idle session should be revoked after appropriate time.
-- Logout MUST revoke the current session.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Session fixation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Previous session should be reissued every times there is any privilege change; e.g. from anonymous user to authenticated user.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Improper session implementation (Session puzzling)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">- Different applications (including some different data flows) should have different isolated session; e.g. session during account registration should not be shared with session after authentication.
-- Session data MUST NOT be leaked to user.
-- Session data MUST NOT be accessed directly from user. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Session as global variables)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[CWE-488]
-If configuration or implementing the session module is necessary, developer should follow the OWASP standard.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>https://cheatsheetseries.owasp.org/cheatsheets/Session_Management_Cheat_Sheet.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Session concurrency design
-- Concurrent session</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/login should be avoided.
-- Optional: Users should have ability to control their own session. (Login, Monitoring, Destroy)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Missing sequential control
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Some applications have several states within a single workflow, such as input validation step and account registration step.
-- Skip the state
-Normal: A -&gt; B -&gt; C -&gt; D
-Vulnerable: A -&gt; B -&gt; D 
-- Repeat the state
-Normal: A -&gt; B -&gt; C -&gt; D
-Vulnerable: A -&gt; B -&gt; C -&gt; A -&gt; D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Missing replay protection
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Missing double submitted prevention on critical function. (E.g. Refresh page after transferring the money)</t>
-    </r>
-  </si>
-  <si>
-    <t>[CWE-307]
-Common protection mechanisms are:
-Implementing rate limit 
-Account lockout
-Requiring human interaction (e.g.  strong captcha)
-Disconnecting suspicious user from the internal environment.
-Notify or require strong identity verification</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[CWE-640]
-For secure account recovery process, it is recommended to follow the guide from OWASP.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>https://cheatsheetseries.owasp.org/cheatsheets/Forgot_Password_Cheat_Sheet.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- SQL injection
-    - Boolean based
-    - Timed based
-    - Error based
-    - Out-of-band
-    - Stacked queries
-    - Second order injection
-    - Control characters: ' " \ ( ), GBK unicode
-    - Comment characters: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t># --</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-- NoSQL injection
-    - LDAP: ( ) &amp; |
-    - MongoDB: ' " \ ; { }
-    - XPath: ' " \ : { } ,
-    - SMTP: \r \n :
-- Tools: OWASP ZAP, nikto, SQLmap, manual review</t>
-    </r>
-  </si>
-  <si>
-    <t>[CWE-89]
-There are several possible solutions for SQL injection depends on the situations:
-Do NOT concatenate user input directly into the query. Such as, ASC, DESC token; use if/else clause to control the query.
-Using only whitelisted known-good characters from the user input.
-Use prepared statements query.
-Escape the characters before the query.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- XML input containing a reference to an external entity is processed by a weakly configured XML parser.
-- XXE is enabled by XML parser
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;?xml version="1.0" encoding="ISO-8859-1"?&gt;
- &lt;!DOCTYPE foo [  
-   &lt;!ELEMENT foo ANY &gt;
-   &lt;!ENTITY xxe SYSTEM "file:///etc/passwd" &gt;]&gt;&lt;foo&gt;&amp;xxe;&lt;/foo&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Tools: OWASP ZAP, nikto, manual review</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Null byte
-    - page=/etc/passwd%00
-    - page=/etc/password%2500
-- Path truncation
-    - page=/etc/passwd…[any]…
-    - page=../../../[any]/../../../etc/passwd
-    - page=/etc/passwd/../../../[any]/../../
-    - page=x/../admin.html/././././[any]/././././
-    - PS: this will </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> work
-    x//..//admin.html//../././/
-- Improper file extension detection
-    - /tmp/shellCode.jpg.exe
-- Tools: OWASP ZAP, nikto, manual review</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Insecure upload path
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- File uploaded directly to file system
-- Missing file name validation
-    - Special characters
-    - Path traversal (Ref: Unauthorized access to file or directory)
-    - Allow same file path with previously uploaded file
-    - File extension bypass (Ref: File extension bypass)
-- Tools: OWASP ZAP, nikto, manual review</t>
-    </r>
-  </si>
-  <si>
-    <t>Reference:
-Unauthorized access to file or directory
-File extension bypass</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Malware upload
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Should NOT allow upload of dangerous file that can be downloaded by other users [Optional]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Control of resources
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- No rate limit control
-- No upload size control
-- Tools: OWASP ZAP, nikto, manual review</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Some web content or error message are critical to be precise so that other users are informed correctly. These information should not be accepted from user input.
-    - Example: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“This page {{user.input.page}} is not available”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> could be manipulated into </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“This page {is not available. Click here &lt;attacker.web&gt; to proceed.&lt;br&gt;…30 times…&lt;br&gt;}} is not available”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Incorrect or misconfiguration lead to directory listing
-- Access to URL as a directory
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>http://example/img/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-- Tools: OWASP ZAP, nikto, manual review</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- String concatenation without escape of control characters on client side.
-    - HTTP &amp; = % #
-    - JSON " ' , { } \
-    - XML &lt; &gt; /
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Improper handling of duplicate key/input parameter.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>The application should NEVER interpret multiple values of the same key/parameter. Accepting multiple values as array could lead to input validation bypass.
-- The application MUST be consistent whether to use first occurrence or the latter in the whole process. The issue will occur if application validates on first occurrence but actual operation uses the second.
-- The application can decide to reject malicious or malformed requests.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Mass assignment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-- The application accepts user input with multiple attributes or fields modification without proper control which attribute should be allowed or disallowed.
-- Happens to some framework with automate input binding to the object's model or object injection.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- WebDAV extension could permit the following methods:
-    - PROPFIND, PROPPATCH, MKCOL, COPY, MOVE, LOCK, UNLOCK
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Incorrect usage of HTTP methods
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - GET, POST, PUT, PATCH, DELETE
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Enable of insecure HTTP methods
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - TRACE
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Tools: OWASP ZAP, Nikto, manual review</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">- Incorrect integer range
-    - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Some business logic such as "Deposit", "Withdrawn"  always expect positive integer value. Using negative value as input could lead to serious business impact.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Some data should NOT be zero or negative.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Invalid date time
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Invalid index of array or data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Any integer should have range limit control. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Incorrect cumulative value
-    - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Some values such as group of percentage values should be cumulated to exact 100%.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Overall sum values should be calculated correctly on server side.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Incorrect dependency of values
-    - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Some values have dependency over others; such as Country, Post code and City.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Incorrect data type and format
-    - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">MUST NOT accept string in the integer field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Exponential integer format - 10E100
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Incorrect type casting or rounding
-    - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">In some environment, application might have to accept integer with very high decimal digits. It is advised to accept these values as String in API gateway and properly cast to proper type at the processing endpoint.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Incorrect casting between integer, float, boolean.</t>
-    </r>
-  </si>
-  <si>
-    <t>Secure D Web Application Security Test Checklist v1.00</t>
-  </si>
-  <si>
-    <t>- While not as critical as XSS, allowing HTML structure injection gives attacker ability to insert malicious contents or redirect traffic to malicious site.
-- Test with HTML tags: &lt;form&gt; &lt;a href&gt; &lt;iframe&gt;
-- Try DOM Clobbering for possible XSS
-- Tools: OWASP ZAP, nikto, manual review</t>
-  </si>
-  <si>
-    <t>Insecure usage of browser local storage</t>
-  </si>
-  <si>
-    <t>Insecure configuration of 3rd party services</t>
-  </si>
-  <si>
-    <t>- Incorrect ACL or privilege policy on 3rd party storage.
-    - Amazon (s3)
-    - Firebase database
-- Missing authorization control when using callback service
-    - LINE chatbot
-    - Dialogflow</t>
-  </si>
-  <si>
-    <t>The developer should review the security best practice guideline on each service that is integrated into the application.</t>
+- X-Forwarded-For</t>
+  </si>
+  <si>
+    <t>- Search engines
+- Third party services: Massive DNS data
+    - virustotal, DNSdumpster, Sublist3r
+- Certificate Transparency (CT)
+    - crt.sh
+    - censys.io
+    - google.com/transparencyreport/https/ct
+- Dictionary based enumeration
+- DNSRecon
+- Permutation/Mutation scan of known domains
+    - Altdns
+- Finding Autonomous System (AS) Numbers
+    - asn.cymru.com
+    - cgi-bin
+    - whois.cgi
+- Misconfigured Zone transfer DNS
+    - dig + multi AXFR @ns1.example.com example.com
+- DNSSEC zones "walk"
+    - ldns-walk (on NSEC records)
+    - crack hash of NSEC3 records
+        - nsec3walker
+        - nsec3map
+- Internet wide scan data project
+    - Forward DNS dataset (Project Sonar)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3077,6 +3062,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3104,7 +3095,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3230,13 +3221,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3341,6 +3386,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4504,8 +4573,8 @@
   </sheetPr>
   <dimension ref="A1:IV8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4561,7 +4630,7 @@
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4581,13 +4650,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV13"/>
+  <dimension ref="A1:IW13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4595,14 +4664,15 @@
     <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.33203125" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="2"/>
+    <col min="4" max="4" width="30.83203125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" style="1" customWidth="1"/>
+    <col min="8" max="257" width="16.33203125" style="1" customWidth="1"/>
+    <col min="258" max="16384" width="16.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
@@ -4611,8 +4681,9 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
         <v>8</v>
       </c>
@@ -4621,8 +4692,9 @@
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -4633,16 +4705,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -4650,31 +4725,37 @@
         <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>269</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>270</v>
+      </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="17"/>
+        <v>168</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>272</v>
+      </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -4682,15 +4763,18 @@
         <v>17</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="17"/>
+        <v>274</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>273</v>
+      </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -4698,15 +4782,18 @@
         <v>18</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="17"/>
+        <v>276</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>275</v>
+      </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -4714,43 +4801,52 @@
         <v>20</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" s="17"/>
+        <v>278</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>277</v>
+      </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="266" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="371" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="17"/>
+      <c r="C9" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>323</v>
+      </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="37" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -4758,15 +4854,18 @@
         <v>26</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="17"/>
+        <v>280</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>169</v>
+      </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="F11" s="17"/>
+      <c r="G11" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -4774,34 +4873,40 @@
         <v>27</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D12" s="17"/>
+        <v>281</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>270</v>
+      </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" s="17"/>
+        <v>284</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>283</v>
+      </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="18" t="s">
-        <v>255</v>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
@@ -4816,13 +4921,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV23"/>
+  <dimension ref="A1:IW23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4830,14 +4935,15 @@
     <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.33203125" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="2"/>
+    <col min="4" max="4" width="30.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" style="1" customWidth="1"/>
+    <col min="8" max="257" width="16.33203125" style="1" customWidth="1"/>
+    <col min="258" max="16384" width="16.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>29</v>
       </c>
@@ -4846,8 +4952,9 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
         <v>30</v>
       </c>
@@ -4856,8 +4963,9 @@
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -4868,16 +4976,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -4885,15 +4996,18 @@
         <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>286</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>285</v>
+      </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -4901,31 +5015,37 @@
         <v>33</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="17"/>
+        <v>288</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>287</v>
+      </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="17"/>
+        <v>210</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+      <c r="F6" s="17"/>
+      <c r="G6" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -4933,15 +5053,18 @@
         <v>35</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="17"/>
+        <v>171</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="168" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="168" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -4949,43 +5072,52 @@
         <v>37</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="17"/>
+        <v>228</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>270</v>
+      </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+      <c r="F8" s="17"/>
+      <c r="G8" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="26"/>
       <c r="C9" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="17"/>
+        <v>230</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="154" x14ac:dyDescent="0.15">
+      <c r="F9" s="17"/>
+      <c r="G9" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="154" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>6</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="17"/>
+        <v>289</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -4993,15 +5125,18 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="17"/>
+        <v>290</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>16</v>
+      </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -5009,15 +5144,18 @@
         <v>41</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="17"/>
+        <v>291</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>16</v>
+      </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="140" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="140" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -5025,15 +5163,18 @@
         <v>43</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="17"/>
+        <v>292</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>270</v>
+      </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -5041,27 +5182,33 @@
         <v>45</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="D14" s="17"/>
+        <v>294</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>293</v>
+      </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="154" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="154" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="26"/>
       <c r="C15" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="D15" s="17"/>
+        <v>296</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>295</v>
+      </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="140" x14ac:dyDescent="0.15">
+      <c r="F15" s="17"/>
+      <c r="G15" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="140" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>11</v>
       </c>
@@ -5069,15 +5216,18 @@
         <v>47</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="17"/>
+        <v>298</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>297</v>
+      </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+      <c r="F16" s="17"/>
+      <c r="G16" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>12</v>
       </c>
@@ -5085,15 +5235,18 @@
         <v>48</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="17"/>
+        <v>299</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>270</v>
+      </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>13</v>
       </c>
@@ -5101,15 +5254,18 @@
         <v>50</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="17"/>
+        <v>300</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>270</v>
+      </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>14</v>
       </c>
@@ -5117,27 +5273,33 @@
         <v>52</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D19" s="17"/>
+        <v>301</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>272</v>
+      </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
       <c r="B20" s="23"/>
       <c r="C20" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="17"/>
+        <v>232</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>16</v>
+      </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="306" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="293" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>15</v>
       </c>
@@ -5145,15 +5307,18 @@
         <v>54</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="17"/>
+        <v>302</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>270</v>
+      </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+      <c r="F21" s="17"/>
+      <c r="G21" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>16</v>
       </c>
@@ -5161,34 +5326,40 @@
         <v>55</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="17"/>
+        <v>303</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>287</v>
+      </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>17</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="D23" s="17"/>
+        <v>266</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>16</v>
+      </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="18" t="s">
-        <v>306</v>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
@@ -5203,13 +5374,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV31"/>
+  <dimension ref="A1:IW31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5217,14 +5388,15 @@
     <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.33203125" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="2"/>
+    <col min="4" max="4" width="30.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" style="1" customWidth="1"/>
+    <col min="8" max="257" width="16.33203125" style="1" customWidth="1"/>
+    <col min="258" max="16384" width="16.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>57</v>
       </c>
@@ -5233,8 +5405,9 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
         <v>58</v>
       </c>
@@ -5243,8 +5416,9 @@
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -5255,16 +5429,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -5272,15 +5449,18 @@
         <v>59</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>175</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="28" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="126" x14ac:dyDescent="0.15">
+      <c r="F4" s="12"/>
+      <c r="G4" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="126" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -5288,39 +5468,48 @@
         <v>60</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="26"/>
       <c r="C6" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="17"/>
+        <v>235</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="26"/>
       <c r="C7" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="17"/>
+        <v>236</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="140" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="140" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>3</v>
       </c>
@@ -5328,63 +5517,78 @@
         <v>63</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="17"/>
+        <v>237</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A9" s="20"/>
       <c r="B9" s="26"/>
       <c r="C9" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="D9" s="17"/>
+        <v>238</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="26"/>
       <c r="C10" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" s="17"/>
+        <v>239</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="B11" s="26"/>
       <c r="C11" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11" s="17"/>
+        <v>240</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="26"/>
       <c r="C12" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="D12" s="17"/>
+        <v>241</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>4</v>
       </c>
@@ -5392,15 +5596,18 @@
         <v>69</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="17"/>
+        <v>206</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>5</v>
       </c>
@@ -5408,15 +5615,18 @@
         <v>71</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="17"/>
+        <v>205</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>6</v>
       </c>
@@ -5424,15 +5634,18 @@
         <v>73</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="17"/>
+        <v>176</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>7</v>
       </c>
@@ -5440,15 +5653,18 @@
         <v>75</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="17"/>
+        <v>177</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="154" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="154" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>8</v>
       </c>
@@ -5456,39 +5672,48 @@
         <v>77</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="D17" s="17"/>
+        <v>242</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="F17" s="17"/>
+      <c r="G17" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
       <c r="B18" s="26"/>
       <c r="C18" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="D18" s="17"/>
+        <v>243</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="24" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+      <c r="F18" s="17"/>
+      <c r="G18" s="24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
       <c r="B19" s="26"/>
       <c r="C19" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="D19" s="17"/>
+        <v>245</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="140" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="140" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>9</v>
       </c>
@@ -5496,51 +5721,63 @@
         <v>79</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="D20" s="17"/>
+        <v>246</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A21" s="20"/>
       <c r="B21" s="26"/>
       <c r="C21" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" s="17"/>
+        <v>247</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A22" s="20"/>
       <c r="B22" s="26"/>
       <c r="C22" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="D22" s="17"/>
+        <v>248</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="24" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="F22" s="17"/>
+      <c r="G22" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A23" s="20"/>
       <c r="B23" s="26"/>
       <c r="C23" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="D23" s="17"/>
+        <v>250</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="126" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="126" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>10</v>
       </c>
@@ -5548,27 +5785,33 @@
         <v>83</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="D24" s="17"/>
+        <v>251</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E24" s="17"/>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17"/>
+      <c r="G24" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A25" s="20"/>
       <c r="B25" s="26"/>
       <c r="C25" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="D25" s="17"/>
+        <v>252</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17"/>
+      <c r="G25" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>11</v>
       </c>
@@ -5576,15 +5819,18 @@
         <v>86</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="D26" s="17"/>
+        <v>217</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="17"/>
+      <c r="G26" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>12</v>
       </c>
@@ -5592,15 +5838,18 @@
         <v>88</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="17"/>
+        <v>178</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="17"/>
+      <c r="G27" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>13</v>
       </c>
@@ -5608,15 +5857,18 @@
         <v>90</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="17"/>
+        <v>179</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="126" x14ac:dyDescent="0.15">
+      <c r="F28" s="17"/>
+      <c r="G28" s="18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="126" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>14</v>
       </c>
@@ -5624,15 +5876,18 @@
         <v>91</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D29" s="17"/>
+        <v>180</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="24" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+      <c r="F29" s="17"/>
+      <c r="G29" s="24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>15</v>
       </c>
@@ -5640,15 +5895,18 @@
         <v>92</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="17"/>
+        <v>181</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E30" s="17"/>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17"/>
+      <c r="G30" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>16</v>
       </c>
@@ -5656,18 +5914,21 @@
         <v>94</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="17"/>
+        <v>182</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="18" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
@@ -5682,13 +5943,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV33"/>
+  <dimension ref="A1:IW33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5696,14 +5957,15 @@
     <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.33203125" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="2"/>
+    <col min="4" max="4" width="30.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" style="1" customWidth="1"/>
+    <col min="8" max="257" width="16.33203125" style="1" customWidth="1"/>
+    <col min="258" max="16384" width="16.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>96</v>
       </c>
@@ -5712,8 +5974,9 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
         <v>97</v>
       </c>
@@ -5722,8 +5985,9 @@
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -5734,16 +5998,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="210" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="196" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -5751,15 +6018,18 @@
         <v>98</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>306</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>305</v>
+      </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="140" x14ac:dyDescent="0.15">
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="126" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -5767,15 +6037,18 @@
         <v>99</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="17"/>
+        <v>308</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>304</v>
+      </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="182" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="182" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -5783,15 +6056,18 @@
         <v>101</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="17"/>
+        <v>307</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>304</v>
+      </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="126" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="126" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -5799,15 +6075,18 @@
         <v>103</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="17"/>
+        <v>309</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>304</v>
+      </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="126" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -5815,15 +6094,18 @@
         <v>105</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="D8" s="17"/>
+        <v>310</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>304</v>
+      </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="293" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="280" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>6</v>
       </c>
@@ -5831,15 +6113,18 @@
         <v>107</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="17"/>
+        <v>311</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>304</v>
+      </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="182" x14ac:dyDescent="0.15">
+      <c r="F9" s="17"/>
+      <c r="G9" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="182" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -5847,15 +6132,16 @@
         <v>108</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="D10" s="17"/>
+        <v>256</v>
+      </c>
+      <c r="D10" s="36"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>8</v>
       </c>
@@ -5863,39 +6149,48 @@
         <v>110</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="D11" s="17"/>
+        <v>312</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>304</v>
+      </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+      <c r="F11" s="17"/>
+      <c r="G11" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="26"/>
       <c r="C12" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="D12" s="17"/>
+        <v>258</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>16</v>
+      </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
       <c r="B13" s="26"/>
       <c r="C13" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D13" s="17"/>
+        <v>313</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>304</v>
+      </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="126" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="126" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>9</v>
       </c>
@@ -5903,15 +6198,18 @@
         <v>113</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="17"/>
+        <v>186</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>16</v>
+      </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="332" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="319" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>9</v>
       </c>
@@ -5919,15 +6217,18 @@
         <v>115</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" s="17"/>
+        <v>314</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>304</v>
+      </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="154" x14ac:dyDescent="0.15">
+      <c r="F15" s="17"/>
+      <c r="G15" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="154" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>10</v>
       </c>
@@ -5935,15 +6236,18 @@
         <v>116</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="D16" s="17"/>
+        <v>315</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>304</v>
+      </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+      <c r="F16" s="17"/>
+      <c r="G16" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>11</v>
       </c>
@@ -5951,31 +6255,37 @@
         <v>117</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="D17" s="17"/>
+        <v>259</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>16</v>
+      </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>12</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="D18" s="17"/>
+      <c r="C18" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>304</v>
+      </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="168" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="168" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>13</v>
       </c>
@@ -5983,15 +6293,18 @@
         <v>121</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="17"/>
+        <v>317</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>304</v>
+      </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="168" x14ac:dyDescent="0.15">
+      <c r="F19" s="17"/>
+      <c r="G19" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="168" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>14</v>
       </c>
@@ -5999,15 +6312,18 @@
         <v>122</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D20" s="17"/>
+        <v>207</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>16</v>
+      </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="196" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="196" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>15</v>
       </c>
@@ -6015,15 +6331,18 @@
         <v>124</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" s="17"/>
+        <v>208</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>16</v>
+      </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="210" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="210" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>16</v>
       </c>
@@ -6031,31 +6350,37 @@
         <v>126</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D22" s="17"/>
+        <v>260</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>16</v>
+      </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>17</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="D23" s="17"/>
+        <v>261</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>16</v>
+      </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+      <c r="F23" s="17"/>
+      <c r="G23" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>18</v>
       </c>
@@ -6063,15 +6388,18 @@
         <v>128</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="D24" s="17"/>
+        <v>318</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>304</v>
+      </c>
       <c r="E24" s="17"/>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17"/>
+      <c r="G24" s="18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>19</v>
       </c>
@@ -6079,15 +6407,18 @@
         <v>130</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="D25" s="17"/>
+        <v>319</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>282</v>
+      </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17"/>
+      <c r="G25" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>20</v>
       </c>
@@ -6095,15 +6426,18 @@
         <v>132</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D26" s="17"/>
+        <v>320</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>282</v>
+      </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="17"/>
+      <c r="G26" s="18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>21</v>
       </c>
@@ -6111,15 +6445,18 @@
         <v>134</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="D27" s="17"/>
+        <v>321</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>282</v>
+      </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="17"/>
+      <c r="G27" s="18" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="140" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="140" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>22</v>
       </c>
@@ -6127,15 +6464,18 @@
         <v>136</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="D28" s="17"/>
+        <v>322</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>282</v>
+      </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="210" x14ac:dyDescent="0.15">
+      <c r="F28" s="17"/>
+      <c r="G28" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="210" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>23</v>
       </c>
@@ -6143,15 +6483,18 @@
         <v>137</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="17"/>
+        <v>190</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>16</v>
+      </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>24</v>
       </c>
@@ -6159,15 +6502,18 @@
         <v>139</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D30" s="17"/>
+        <v>191</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>16</v>
+      </c>
       <c r="E30" s="17"/>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17"/>
+      <c r="G30" s="18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>25</v>
       </c>
@@ -6175,42 +6521,51 @@
         <v>141</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D31" s="17"/>
+        <v>192</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>16</v>
+      </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A32" s="20"/>
       <c r="B32" s="26"/>
       <c r="C32" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" s="17"/>
+        <v>193</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>16</v>
+      </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="17"/>
+      <c r="G32" s="18" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A33" s="20"/>
       <c r="B33" s="26"/>
       <c r="C33" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" s="17"/>
+        <v>194</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>16</v>
+      </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="17"/>
+      <c r="G33" s="18" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
@@ -6225,13 +6580,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV9"/>
+  <dimension ref="A1:IW9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6239,14 +6594,15 @@
     <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.33203125" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="2"/>
+    <col min="4" max="4" width="30.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" style="1" customWidth="1"/>
+    <col min="8" max="257" width="16.33203125" style="1" customWidth="1"/>
+    <col min="258" max="16384" width="16.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>144</v>
       </c>
@@ -6255,18 +6611,20 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -6277,16 +6635,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="128.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6294,15 +6655,18 @@
         <v>145</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>196</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="345" x14ac:dyDescent="0.15">
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="345" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -6310,15 +6674,18 @@
         <v>146</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" s="17"/>
+        <v>262</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+      <c r="F5" s="17"/>
+      <c r="G5" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -6326,15 +6693,18 @@
         <v>147</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="17"/>
+        <v>197</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -6342,15 +6712,18 @@
         <v>149</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="17"/>
+        <v>203</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -6358,15 +6731,18 @@
         <v>151</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="17"/>
+        <v>198</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>6</v>
       </c>
@@ -6374,18 +6750,21 @@
         <v>153</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="17"/>
+        <v>199</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="18" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
@@ -6400,13 +6779,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV11"/>
+  <dimension ref="A1:IW11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6414,14 +6793,15 @@
     <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.33203125" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="2"/>
+    <col min="4" max="4" width="30.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" style="1" customWidth="1"/>
+    <col min="8" max="257" width="16.33203125" style="1" customWidth="1"/>
+    <col min="258" max="16384" width="16.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>155</v>
       </c>
@@ -6430,8 +6810,9 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
         <v>156</v>
       </c>
@@ -6440,8 +6821,9 @@
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -6452,16 +6834,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6469,15 +6854,18 @@
         <v>157</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>195</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -6485,15 +6873,18 @@
         <v>159</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="17"/>
+        <v>218</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -6501,15 +6892,18 @@
         <v>161</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D6" s="17"/>
+        <v>219</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+      <c r="F6" s="17"/>
+      <c r="G6" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -6517,47 +6911,56 @@
         <v>162</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="D7" s="17"/>
+        <v>220</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="D8" s="17"/>
+        <v>221</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="F8" s="17"/>
+      <c r="G8" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9" s="17"/>
+        <v>222</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="F9" s="17"/>
+      <c r="G9" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -6565,15 +6968,18 @@
         <v>164</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="17"/>
+        <v>204</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>8</v>
       </c>
@@ -6581,18 +6987,21 @@
         <v>166</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="D11" s="17"/>
+        <v>223</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>16</v>
+      </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="18" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>

--- a/Secure D Web Application Security Test Checklist v1.00.xlsx
+++ b/Secure D Web Application Security Test Checklist v1.00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bankde/Desktop/work/wastc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF272C62-841C-0947-AA6E-C194ADC8152A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C57E0C-E396-744A-B6FC-B3DA35007968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project information" sheetId="1" r:id="rId1"/>
@@ -787,13 +787,6 @@
 - Unable to counter repudiation from malicious users.
 - Unable to mitigate and prevent on-going vulnerable application.
 - Should consist of: Who doing what where how when</t>
-  </si>
-  <si>
-    <t>- Improper money exchange rate. 
-Such as getting small sum from trading A -&gt; B -&gt; C -&gt; A
-- Repeatable of discount, reward, voucher or gift.
-- Game with rewards or leaderboard from repetitive tasks (thus, vulnerable to bot) or client-side logic.
-- Signup reward of unauthenticated registration.</t>
   </si>
   <si>
     <t>- Phishing attack or confusion cause from the similarity in different unicode characters. (E.g. English, Latin, Greek, Cyrillic, etc)
@@ -3003,6 +2996,13 @@
         - nsec3map
 - Internet wide scan data project
     - Forward DNS dataset (Project Sonar)</t>
+  </si>
+  <si>
+    <t>- Improper money exchange rate. (Arbitrage opportunity)
+Such as getting small sum from trading A -&gt; B -&gt; C -&gt; A
+- Repeatable of discount, reward, voucher or gift.
+- Game with rewards or leaderboard from repetitive tasks (thus, vulnerable to bot) or client-side logic.
+- Signup reward of unauthenticated registration.</t>
   </si>
 </sst>
 </file>
@@ -3378,15 +3378,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -3410,6 +3401,15 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4573,8 +4573,8 @@
   </sheetPr>
   <dimension ref="A1:IV8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4586,10 +4586,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4630,7 +4630,7 @@
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4652,11 +4652,11 @@
   </sheetPr>
   <dimension ref="A1:IW13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4664,7 +4664,7 @@
     <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" style="36" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="1" customWidth="1"/>
     <col min="7" max="7" width="42.33203125" style="1" customWidth="1"/>
@@ -4673,26 +4673,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
@@ -4705,7 +4705,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -4725,10 +4725,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>269</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>270</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -4744,10 +4744,10 @@
         <v>168</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>271</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>272</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -4763,10 +4763,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="37" t="s">
         <v>273</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>272</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -4782,10 +4782,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="37" t="s">
         <v>275</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>274</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -4801,10 +4801,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" s="37" t="s">
         <v>277</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>276</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -4820,10 +4820,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -4837,7 +4837,7 @@
       <c r="C10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="17"/>
@@ -4854,7 +4854,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>169</v>
@@ -4873,10 +4873,10 @@
         <v>27</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>270</v>
+        <v>280</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -4889,18 +4889,18 @@
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="D13" s="37" t="s">
         <v>283</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>282</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4944,26 +4944,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -4976,7 +4976,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -4996,10 +4996,10 @@
         <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -5015,10 +5015,10 @@
         <v>33</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -5031,10 +5031,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>209</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>210</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>16</v>
@@ -5042,7 +5042,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="84" x14ac:dyDescent="0.15">
@@ -5072,22 +5072,22 @@
         <v>37</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="26"/>
       <c r="C9" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>16</v>
@@ -5095,7 +5095,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="154" x14ac:dyDescent="0.15">
@@ -5103,12 +5103,12 @@
         <v>6</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="17"/>
@@ -5125,9 +5125,9 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="D11" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="37" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="17"/>
@@ -5144,9 +5144,9 @@
         <v>41</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="17"/>
@@ -5163,10 +5163,10 @@
         <v>43</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -5182,10 +5182,10 @@
         <v>45</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="40" t="s">
         <v>293</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>292</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -5197,10 +5197,10 @@
       <c r="A15" s="14"/>
       <c r="B15" s="26"/>
       <c r="C15" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="D15" s="40" t="s">
         <v>295</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>294</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -5216,10 +5216,10 @@
         <v>47</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -5235,10 +5235,10 @@
         <v>48</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -5254,10 +5254,10 @@
         <v>50</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -5273,10 +5273,10 @@
         <v>52</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -5288,9 +5288,9 @@
       <c r="A20" s="27"/>
       <c r="B20" s="23"/>
       <c r="C20" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D20" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="17"/>
@@ -5307,10 +5307,10 @@
         <v>54</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>270</v>
+        <v>301</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>269</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -5326,10 +5326,10 @@
         <v>55</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -5342,18 +5342,18 @@
         <v>17</v>
       </c>
       <c r="B23" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="37" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5380,7 +5380,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5397,26 +5397,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -5429,7 +5429,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -5451,13 +5451,13 @@
       <c r="C4" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="126" x14ac:dyDescent="0.15">
@@ -5468,9 +5468,9 @@
         <v>60</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="12"/>
@@ -5483,9 +5483,9 @@
       <c r="A6" s="20"/>
       <c r="B6" s="26"/>
       <c r="C6" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="17"/>
@@ -5498,9 +5498,9 @@
       <c r="A7" s="20"/>
       <c r="B7" s="26"/>
       <c r="C7" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="17"/>
@@ -5517,9 +5517,9 @@
         <v>63</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="17"/>
@@ -5532,9 +5532,9 @@
       <c r="A9" s="20"/>
       <c r="B9" s="26"/>
       <c r="C9" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="17"/>
@@ -5547,9 +5547,9 @@
       <c r="A10" s="20"/>
       <c r="B10" s="26"/>
       <c r="C10" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="D10" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="17"/>
@@ -5562,9 +5562,9 @@
       <c r="A11" s="20"/>
       <c r="B11" s="26"/>
       <c r="C11" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D11" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="17"/>
@@ -5577,9 +5577,9 @@
       <c r="A12" s="20"/>
       <c r="B12" s="26"/>
       <c r="C12" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="D12" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="17"/>
@@ -5596,9 +5596,9 @@
         <v>69</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="17"/>
@@ -5615,9 +5615,9 @@
         <v>71</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="17"/>
@@ -5636,7 +5636,7 @@
       <c r="C15" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="17"/>
@@ -5655,7 +5655,7 @@
       <c r="C16" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="17"/>
@@ -5672,9 +5672,9 @@
         <v>77</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="17"/>
@@ -5687,24 +5687,24 @@
       <c r="A18" s="20"/>
       <c r="B18" s="26"/>
       <c r="C18" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="D18" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
       <c r="B19" s="26"/>
       <c r="C19" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="17"/>
@@ -5721,9 +5721,9 @@
         <v>79</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="17"/>
@@ -5736,9 +5736,9 @@
       <c r="A21" s="20"/>
       <c r="B21" s="26"/>
       <c r="C21" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D21" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="17"/>
@@ -5751,24 +5751,24 @@
       <c r="A22" s="20"/>
       <c r="B22" s="26"/>
       <c r="C22" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="D22" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A23" s="20"/>
       <c r="B23" s="26"/>
       <c r="C23" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="D23" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="17"/>
@@ -5785,9 +5785,9 @@
         <v>83</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="D24" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="17"/>
@@ -5800,9 +5800,9 @@
       <c r="A25" s="20"/>
       <c r="B25" s="26"/>
       <c r="C25" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="17"/>
@@ -5819,9 +5819,9 @@
         <v>86</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="17"/>
@@ -5840,7 +5840,7 @@
       <c r="C27" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="17"/>
@@ -5859,13 +5859,13 @@
       <c r="C28" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="126" x14ac:dyDescent="0.15">
@@ -5878,13 +5878,13 @@
       <c r="C29" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="70" x14ac:dyDescent="0.15">
@@ -5897,7 +5897,7 @@
       <c r="C30" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="17"/>
@@ -5916,7 +5916,7 @@
       <c r="C31" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="17"/>
@@ -5966,26 +5966,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -5998,7 +5998,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -6018,15 +6018,15 @@
         <v>98</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" s="35" t="s">
         <v>305</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>304</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="126" x14ac:dyDescent="0.15">
@@ -6037,10 +6037,10 @@
         <v>99</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>304</v>
+        <v>307</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -6056,10 +6056,10 @@
         <v>101</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>304</v>
+        <v>306</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -6075,10 +6075,10 @@
         <v>103</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>304</v>
+        <v>308</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -6094,10 +6094,10 @@
         <v>105</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>304</v>
+        <v>309</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -6113,10 +6113,10 @@
         <v>107</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>304</v>
+        <v>310</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -6132,9 +6132,9 @@
         <v>108</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="36"/>
+        <v>255</v>
+      </c>
+      <c r="D10" s="33"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="18" t="s">
@@ -6149,24 +6149,24 @@
         <v>110</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>304</v>
+        <v>311</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>303</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="26"/>
       <c r="C12" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="17"/>
@@ -6179,10 +6179,10 @@
       <c r="A13" s="20"/>
       <c r="B13" s="26"/>
       <c r="C13" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>304</v>
+        <v>312</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>303</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -6200,7 +6200,7 @@
       <c r="C14" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="17"/>
@@ -6217,10 +6217,10 @@
         <v>115</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>304</v>
+        <v>313</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>303</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -6236,10 +6236,10 @@
         <v>116</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>304</v>
+        <v>314</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>303</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -6255,9 +6255,9 @@
         <v>117</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="D17" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="17"/>
@@ -6274,10 +6274,10 @@
         <v>119</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>304</v>
+        <v>315</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>303</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -6293,10 +6293,10 @@
         <v>121</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>304</v>
+        <v>316</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>303</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -6312,9 +6312,9 @@
         <v>122</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="17"/>
@@ -6331,9 +6331,9 @@
         <v>124</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="17"/>
@@ -6350,9 +6350,9 @@
         <v>126</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D22" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="17"/>
@@ -6366,18 +6366,18 @@
         <v>17</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D23" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="98" x14ac:dyDescent="0.15">
@@ -6388,10 +6388,10 @@
         <v>128</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>304</v>
+        <v>317</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>303</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -6407,10 +6407,10 @@
         <v>130</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>282</v>
+        <v>318</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>281</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -6426,10 +6426,10 @@
         <v>132</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>282</v>
+        <v>319</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>281</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -6445,10 +6445,10 @@
         <v>134</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>282</v>
+        <v>320</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>281</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -6464,10 +6464,10 @@
         <v>136</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>282</v>
+        <v>321</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>281</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -6485,7 +6485,7 @@
       <c r="C29" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="39" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="17"/>
@@ -6504,7 +6504,7 @@
       <c r="C30" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="39" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="17"/>
@@ -6523,7 +6523,7 @@
       <c r="C31" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="17"/>
@@ -6538,7 +6538,7 @@
       <c r="C32" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="17"/>
@@ -6553,7 +6553,7 @@
       <c r="C33" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="17"/>
@@ -6586,7 +6586,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6603,26 +6603,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6635,7 +6635,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -6655,15 +6655,15 @@
         <v>145</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="345" x14ac:dyDescent="0.15">
@@ -6674,15 +6674,15 @@
         <v>146</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="84" x14ac:dyDescent="0.15">
@@ -6693,9 +6693,9 @@
         <v>147</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="17"/>
@@ -6712,9 +6712,9 @@
         <v>149</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="17"/>
@@ -6731,9 +6731,9 @@
         <v>151</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="17"/>
@@ -6750,9 +6750,9 @@
         <v>153</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="17"/>
@@ -6802,26 +6802,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6834,7 +6834,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -6856,7 +6856,7 @@
       <c r="C4" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="38" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="12"/>
@@ -6873,9 +6873,9 @@
         <v>159</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D5" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="17"/>
@@ -6892,15 +6892,15 @@
         <v>161</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="70" x14ac:dyDescent="0.15">
@@ -6911,9 +6911,9 @@
         <v>162</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="38" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="17"/>
@@ -6927,18 +6927,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -6946,18 +6946,18 @@
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -6968,9 +6968,9 @@
         <v>164</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="17"/>
@@ -6987,9 +6987,9 @@
         <v>166</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="38" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="17"/>

--- a/Secure D Web Application Security Test Checklist v1.00.xlsx
+++ b/Secure D Web Application Security Test Checklist v1.00.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bankde/Desktop/work/wastc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C57E0C-E396-744A-B6FC-B3DA35007968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942495F5-A233-4745-8248-6F486C492293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="327">
   <si>
     <t>Project Information</t>
   </si>
@@ -1316,28 +1316,6 @@
         <family val="1"/>
       </rPr>
       <t>https://www.owasp.org/index.php/Testing_for_cookies_attributes_(OTG-SESS-002)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Incorrect use of cookie or token
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Should not store any sensitive information in cleartext in a cookie.</t>
     </r>
   </si>
   <si>
@@ -3003,6 +2981,60 @@
 - Repeatable of discount, reward, voucher or gift.
 - Game with rewards or leaderboard from repetitive tasks (thus, vulnerable to bot) or client-side logic.
 - Signup reward of unauthenticated registration.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Incorrect use of cookie or token
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Should not store any sensitive information in cleartext in a cookie or token.</t>
+    </r>
+  </si>
+  <si>
+    <t>jwt.io
+c-jwt-cracker</t>
+  </si>
+  <si>
+    <r>
+      <t>Improper JWT implementation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- Create and sign on the server side.
+- Use up-to-date or implement secure JWT interpreter.
+    - Do NOT accept "None" algorithm.
+    - Signature MUST be verified before processing.
+    - Strictly check the expiration (exp) payload.
+    - Not vulnerable against algorithm/key confusion (Change RS256 to HS256)
+- HMAC key MUST be larger than 256 bits.
+- Token validation MUST be unique, per-service keys.
+- Token should be revocable by both client and server.</t>
+    </r>
+  </si>
+  <si>
+    <t>Application MUST ensure that it uses secure and up-to-date JWT validation library. Signing MUST be performed on trusted server and the signing secret MUST be strong (HMAC key MUST be larger than 256 bits) and secure.
+Recommendation for JWT:
+https://cheatsheetseries.owasp.org/cheatsheets/JSON_Web_Token_for_Java_Cheat_Sheet.html</t>
   </si>
 </sst>
 </file>
@@ -3281,7 +3313,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3410,6 +3442,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4574,7 +4609,7 @@
   <dimension ref="A1:IV8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4630,7 +4665,7 @@
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4705,7 +4740,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -4725,10 +4760,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>268</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>269</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -4744,10 +4779,10 @@
         <v>168</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>270</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>271</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -4763,10 +4798,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -4782,10 +4817,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -4801,10 +4836,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -4820,10 +4855,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -4854,7 +4889,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>169</v>
@@ -4873,10 +4908,10 @@
         <v>27</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -4892,10 +4927,10 @@
         <v>225</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -4976,7 +5011,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -4996,10 +5031,10 @@
         <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -5015,10 +5050,10 @@
         <v>33</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -5075,7 +5110,7 @@
         <v>227</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -5103,10 +5138,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>16</v>
@@ -5125,7 +5160,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>16</v>
@@ -5144,7 +5179,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>16</v>
@@ -5163,10 +5198,10 @@
         <v>43</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -5182,10 +5217,10 @@
         <v>45</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -5197,10 +5232,10 @@
       <c r="A15" s="14"/>
       <c r="B15" s="26"/>
       <c r="C15" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -5216,10 +5251,10 @@
         <v>47</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -5235,10 +5270,10 @@
         <v>48</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -5254,10 +5289,10 @@
         <v>50</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -5273,10 +5308,10 @@
         <v>52</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -5307,10 +5342,10 @@
         <v>54</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -5326,10 +5361,10 @@
         <v>55</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -5342,10 +5377,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>264</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>265</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>16</v>
@@ -5353,7 +5388,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5374,13 +5409,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW31"/>
+  <dimension ref="A1:IW32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5429,7 +5464,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -5702,7 +5737,7 @@
       <c r="A19" s="20"/>
       <c r="B19" s="26"/>
       <c r="C19" s="22" t="s">
-        <v>244</v>
+        <v>323</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>16</v>
@@ -5713,30 +5748,30 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="140" x14ac:dyDescent="0.15">
-      <c r="A20" s="14">
-        <v>9</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>245</v>
+    <row r="20" spans="1:7" ht="154" x14ac:dyDescent="0.15">
+      <c r="A20" s="20"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="43" t="s">
+        <v>325</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="70" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="26"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="140" x14ac:dyDescent="0.15">
+      <c r="A21" s="14">
+        <v>9</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>79</v>
+      </c>
       <c r="C21" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D21" s="32" t="s">
         <v>16</v>
@@ -5744,48 +5779,44 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="112" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A22" s="20"/>
       <c r="B22" s="26"/>
       <c r="C22" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="24" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="56" x14ac:dyDescent="0.15">
+      <c r="G22" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A23" s="20"/>
       <c r="B23" s="26"/>
       <c r="C23" s="22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="126" x14ac:dyDescent="0.15">
-      <c r="A24" s="14">
-        <v>10</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>83</v>
-      </c>
+      <c r="G23" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="56" x14ac:dyDescent="0.15">
+      <c r="A24" s="20"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>16</v>
@@ -5793,14 +5824,18 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="70" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
-      <c r="B25" s="26"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="126" x14ac:dyDescent="0.15">
+      <c r="A25" s="14">
+        <v>10</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>83</v>
+      </c>
       <c r="C25" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>16</v>
@@ -5808,18 +5843,14 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="56" x14ac:dyDescent="0.15">
-      <c r="A26" s="14">
-        <v>11</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>216</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+      <c r="A26" s="20"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>16</v>
@@ -5827,18 +5858,18 @@
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="112" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>16</v>
@@ -5846,18 +5877,18 @@
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>16</v>
@@ -5865,56 +5896,56 @@
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="126" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="24" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+      <c r="G29" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="126" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="84" x14ac:dyDescent="0.15">
+      <c r="G30" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>16</v>
@@ -5922,6 +5953,25 @@
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="84" x14ac:dyDescent="0.15">
+      <c r="A32" s="14">
+        <v>16</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5998,7 +6048,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -6018,15 +6068,15 @@
         <v>98</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="126" x14ac:dyDescent="0.15">
@@ -6037,10 +6087,10 @@
         <v>99</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -6056,10 +6106,10 @@
         <v>101</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -6075,10 +6125,10 @@
         <v>103</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -6094,10 +6144,10 @@
         <v>105</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -6113,10 +6163,10 @@
         <v>107</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -6132,7 +6182,7 @@
         <v>108</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="17"/>
@@ -6149,22 +6199,22 @@
         <v>110</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="26"/>
       <c r="C12" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>16</v>
@@ -6179,10 +6229,10 @@
       <c r="A13" s="20"/>
       <c r="B13" s="26"/>
       <c r="C13" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -6217,10 +6267,10 @@
         <v>115</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -6236,10 +6286,10 @@
         <v>116</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -6255,7 +6305,7 @@
         <v>117</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>16</v>
@@ -6274,10 +6324,10 @@
         <v>119</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -6293,10 +6343,10 @@
         <v>121</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -6350,7 +6400,7 @@
         <v>126</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>16</v>
@@ -6369,7 +6419,7 @@
         <v>223</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>16</v>
@@ -6388,10 +6438,10 @@
         <v>128</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -6407,10 +6457,10 @@
         <v>130</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -6426,10 +6476,10 @@
         <v>132</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -6445,10 +6495,10 @@
         <v>134</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -6464,10 +6514,10 @@
         <v>136</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -6635,7 +6685,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -6655,7 +6705,7 @@
         <v>145</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>16</v>
@@ -6674,7 +6724,7 @@
         <v>146</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>16</v>
@@ -6834,7 +6884,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>

--- a/Secure D Web Application Security Test Checklist v1.00.xlsx
+++ b/Secure D Web Application Security Test Checklist v1.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bankde/Desktop/work/wastc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942495F5-A233-4745-8248-6F486C492293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854275DE-90DC-734A-B7C2-44300E0C14CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="330">
   <si>
     <t>Project Information</t>
   </si>
@@ -3035,6 +3035,22 @@
     <t>Application MUST ensure that it uses secure and up-to-date JWT validation library. Signing MUST be performed on trusted server and the signing secret MUST be strong (HMAC key MUST be larger than 256 bits) and secure.
 Recommendation for JWT:
 https://cheatsheetseries.owasp.org/cheatsheets/JSON_Web_Token_for_Java_Cheat_Sheet.html</t>
+  </si>
+  <si>
+    <t>Prototype pollution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Web application written with javascript family (NodeJS).
+- Can be occurred either client or server side.
+- Conditions:
+    - The application accepts JSON object from user input without field validation and the JSON contains __proto__ property.
+    - The application performs unsafe merge, clone, extend, or path assignment on that object.
+    - The user is then indirectly able to control the object. The impact could be DoS and input validation bypass that may lead to RCE, XSS or injection.
+</t>
+  </si>
+  <si>
+    <t>Validatie user input by restricting the JSON fields and avoiding perform unsafe action (merge, clone, extend, or path assignment) on __proto__ field.
+For third party libraries, ensure they are updated to secure version.</t>
   </si>
 </sst>
 </file>
@@ -3434,6 +3450,9 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3442,9 +3461,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4609,7 +4625,7 @@
   <dimension ref="A1:IV8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4621,10 +4637,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4708,26 +4724,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
@@ -4979,26 +4995,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -5432,26 +5448,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -5751,7 +5767,7 @@
     <row r="20" spans="1:7" ht="154" x14ac:dyDescent="0.15">
       <c r="A20" s="20"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="40" t="s">
         <v>325</v>
       </c>
       <c r="D20" s="32" t="s">
@@ -5993,13 +6009,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW33"/>
+  <dimension ref="A1:IW34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6016,26 +6032,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6411,42 +6427,40 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="84" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="168" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>17</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>16</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D23" s="33"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="98" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>18</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>302</v>
+        <v>259</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="18" t="s">
-        <v>129</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="98" x14ac:dyDescent="0.15">
@@ -6454,18 +6468,18 @@
         <v>19</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="98" x14ac:dyDescent="0.15">
@@ -6473,10 +6487,10 @@
         <v>20</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>280</v>
@@ -6484,7 +6498,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="98" x14ac:dyDescent="0.15">
@@ -6492,10 +6506,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>280</v>
@@ -6503,56 +6517,56 @@
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="140" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>22</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>280</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="210" x14ac:dyDescent="0.15">
+      <c r="G28" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="140" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>23</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>190</v>
+        <v>136</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>320</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="112" x14ac:dyDescent="0.15">
+      <c r="G29" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="210" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>24</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>191</v>
+        <v>137</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>190</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>16</v>
@@ -6560,33 +6574,37 @@
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="112" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>25</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="26"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+      <c r="A32" s="14">
+        <v>26</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>141</v>
+      </c>
       <c r="C32" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>16</v>
@@ -6594,14 +6612,14 @@
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="84" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="20"/>
       <c r="B33" s="26"/>
       <c r="C33" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>16</v>
@@ -6609,6 +6627,21 @@
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="84" x14ac:dyDescent="0.15">
+      <c r="A34" s="20"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6653,26 +6686,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6852,26 +6885,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/Secure D Web Application Security Test Checklist v1.00.xlsx
+++ b/Secure D Web Application Security Test Checklist v1.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bankde/Desktop/work/wastc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854275DE-90DC-734A-B7C2-44300E0C14CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9464252E-28A9-8748-94B5-7961569A5D8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3032,11 +3032,6 @@
     </r>
   </si>
   <si>
-    <t>Application MUST ensure that it uses secure and up-to-date JWT validation library. Signing MUST be performed on trusted server and the signing secret MUST be strong (HMAC key MUST be larger than 256 bits) and secure.
-Recommendation for JWT:
-https://cheatsheetseries.owasp.org/cheatsheets/JSON_Web_Token_for_Java_Cheat_Sheet.html</t>
-  </si>
-  <si>
     <t>Prototype pollution</t>
   </si>
   <si>
@@ -3051,6 +3046,11 @@
   <si>
     <t>Validatie user input by restricting the JSON fields and avoiding perform unsafe action (merge, clone, extend, or path assignment) on __proto__ field.
 For third party libraries, ensure they are updated to secure version.</t>
+  </si>
+  <si>
+    <t>Ensure that your application's JWT validation library is secure and updated to secure version. Signing MUST be performed on trusted server and the signing secret MUST be strong (HMAC key MUST be larger than 256 bits) and secure.
+Recommendation for JWT:
+https://cheatsheetseries.owasp.org/cheatsheets/JSON_Web_Token_for_Java_Cheat_Sheet.html</t>
   </si>
 </sst>
 </file>
@@ -4625,7 +4625,7 @@
   <dimension ref="A1:IV8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5431,7 +5431,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:G2"/>
+      <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5776,7 +5776,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="18" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="140" x14ac:dyDescent="0.15">
@@ -6432,16 +6432,16 @@
         <v>17</v>
       </c>
       <c r="B23" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>327</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>328</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="84" x14ac:dyDescent="0.15">

--- a/Secure D Web Application Security Test Checklist v1.00.xlsx
+++ b/Secure D Web Application Security Test Checklist v1.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bankde/Desktop/work/wastc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9464252E-28A9-8748-94B5-7961569A5D8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4E5F22-7818-C743-BCF9-B5F3C3F0BC89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,12 +482,6 @@
     <t>HTTP parameter / Json / XML pollution</t>
   </si>
   <si>
-    <t>[CWE-235]
-Developer should process the user input through the framework method so the inputs from HTTP parameters are always consistent.
-Developer MUST carefully study the framework how it processes the HTTP parameter.
-For frontend javascript, do NOT manually concatenate the user input into a server request, using framework request form is recommended.</t>
-  </si>
-  <si>
     <t>HTTP methods tampering</t>
   </si>
   <si>
@@ -1628,56 +1622,6 @@
         <family val="1"/>
       </rPr>
       <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- String concatenation without escape of control characters on client side.
-    - HTTP &amp; = % #
-    - JSON " ' , { } \
-    - XML &lt; &gt; /
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Improper handling of duplicate key/input parameter.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>The application should NEVER interpret multiple values of the same key/parameter. Accepting multiple values as array could lead to input validation bypass.
-- The application MUST be consistent whether to use first occurrence or the latter in the whole process. The issue will occur if application validates on first occurrence but actual operation uses the second.
-- The application can decide to reject malicious or malformed requests.</t>
     </r>
   </si>
   <si>
@@ -3051,6 +2995,63 @@
     <t>Ensure that your application's JWT validation library is secure and updated to secure version. Signing MUST be performed on trusted server and the signing secret MUST be strong (HMAC key MUST be larger than 256 bits) and secure.
 Recommendation for JWT:
 https://cheatsheetseries.owasp.org/cheatsheets/JSON_Web_Token_for_Java_Cheat_Sheet.html</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- String concatenation without escape of control characters during the parameters, JSON, or XML creation. This may happen on either client or server side.
+    - HTTP &amp; = % #
+    - JSON " ' , { } \
+    - XML &lt; &gt; /
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Improper handling of duplicate key/input parameter.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>The application should NEVER interpret multiple values of the same key/parameter. Accepting multiple values as array could lead to input validation bypass.
+- The application MUST be consistent whether to use first occurrence or the latter in the whole process. The issue will occur if application validates on first occurrence but actual operation uses the second.
+- The application can decide to reject malicious or malformed requests.</t>
+    </r>
+  </si>
+  <si>
+    <t>[CWE-235]
+Developer should process the user input through the framework method so the inputs from HTTP parameters are always consistent.
+Developer MUST carefully study the framework how it processes the HTTP parameter.
+Do NOT manually concatenate the user input into a server request, JSON, or XML creation. For frontend developer, using framework request form is recommended. For backend developer, using secure template is recommended.
+The developer could carefully study the control characters and manually escape them before HTTP requests, JSON, or XML creation. The control characters can be varied and can be easily missed. This option should only be done when there is no other solutions.</t>
   </si>
 </sst>
 </file>
@@ -4625,7 +4626,7 @@
   <dimension ref="A1:IV8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4681,7 +4682,7 @@
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4756,7 +4757,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -4776,10 +4777,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -4792,13 +4793,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -4814,10 +4815,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -4833,10 +4834,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -4852,10 +4853,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -4871,10 +4872,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -4905,15 +4906,15 @@
         <v>26</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -4924,10 +4925,10 @@
         <v>27</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -4940,18 +4941,18 @@
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -5027,7 +5028,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -5047,10 +5048,10 @@
         <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -5066,10 +5067,10 @@
         <v>33</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -5082,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>208</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>209</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>16</v>
@@ -5093,7 +5094,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="84" x14ac:dyDescent="0.15">
@@ -5104,7 +5105,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>16</v>
@@ -5123,22 +5124,22 @@
         <v>37</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="26"/>
       <c r="C9" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>16</v>
@@ -5146,7 +5147,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="154" x14ac:dyDescent="0.15">
@@ -5154,10 +5155,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>16</v>
@@ -5176,7 +5177,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>16</v>
@@ -5195,7 +5196,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>16</v>
@@ -5214,10 +5215,10 @@
         <v>43</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -5233,10 +5234,10 @@
         <v>45</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -5248,15 +5249,15 @@
       <c r="A15" s="14"/>
       <c r="B15" s="26"/>
       <c r="C15" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="140" x14ac:dyDescent="0.15">
@@ -5267,15 +5268,15 @@
         <v>47</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="84" x14ac:dyDescent="0.15">
@@ -5286,10 +5287,10 @@
         <v>48</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -5305,10 +5306,10 @@
         <v>50</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -5324,10 +5325,10 @@
         <v>52</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -5339,7 +5340,7 @@
       <c r="A20" s="27"/>
       <c r="B20" s="23"/>
       <c r="C20" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>16</v>
@@ -5358,15 +5359,15 @@
         <v>54</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="56" x14ac:dyDescent="0.15">
@@ -5377,10 +5378,10 @@
         <v>55</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -5393,10 +5394,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>16</v>
@@ -5404,7 +5405,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5480,7 +5481,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -5500,7 +5501,7 @@
         <v>59</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>16</v>
@@ -5508,7 +5509,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="126" x14ac:dyDescent="0.15">
@@ -5519,7 +5520,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>16</v>
@@ -5527,14 +5528,14 @@
       <c r="E5" s="12"/>
       <c r="F5" s="17"/>
       <c r="G5" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="26"/>
       <c r="C6" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>16</v>
@@ -5549,7 +5550,7 @@
       <c r="A7" s="20"/>
       <c r="B7" s="26"/>
       <c r="C7" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>16</v>
@@ -5568,7 +5569,7 @@
         <v>63</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>16</v>
@@ -5583,7 +5584,7 @@
       <c r="A9" s="20"/>
       <c r="B9" s="26"/>
       <c r="C9" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>16</v>
@@ -5598,7 +5599,7 @@
       <c r="A10" s="20"/>
       <c r="B10" s="26"/>
       <c r="C10" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>16</v>
@@ -5613,7 +5614,7 @@
       <c r="A11" s="20"/>
       <c r="B11" s="26"/>
       <c r="C11" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>16</v>
@@ -5628,7 +5629,7 @@
       <c r="A12" s="20"/>
       <c r="B12" s="26"/>
       <c r="C12" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>16</v>
@@ -5647,7 +5648,7 @@
         <v>69</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>16</v>
@@ -5666,7 +5667,7 @@
         <v>71</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>16</v>
@@ -5685,7 +5686,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>16</v>
@@ -5704,7 +5705,7 @@
         <v>75</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>16</v>
@@ -5723,7 +5724,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>16</v>
@@ -5731,14 +5732,14 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
       <c r="B18" s="26"/>
       <c r="C18" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>16</v>
@@ -5746,14 +5747,14 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
       <c r="B19" s="26"/>
       <c r="C19" s="22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>16</v>
@@ -5768,15 +5769,15 @@
       <c r="A20" s="20"/>
       <c r="B20" s="26"/>
       <c r="C20" s="40" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="140" x14ac:dyDescent="0.15">
@@ -5787,7 +5788,7 @@
         <v>79</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D21" s="32" t="s">
         <v>16</v>
@@ -5802,7 +5803,7 @@
       <c r="A22" s="20"/>
       <c r="B22" s="26"/>
       <c r="C22" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>16</v>
@@ -5817,7 +5818,7 @@
       <c r="A23" s="20"/>
       <c r="B23" s="26"/>
       <c r="C23" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>16</v>
@@ -5825,14 +5826,14 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A24" s="20"/>
       <c r="B24" s="26"/>
       <c r="C24" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>16</v>
@@ -5851,7 +5852,7 @@
         <v>83</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>16</v>
@@ -5866,7 +5867,7 @@
       <c r="A26" s="20"/>
       <c r="B26" s="26"/>
       <c r="C26" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>16</v>
@@ -5885,7 +5886,7 @@
         <v>86</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>16</v>
@@ -5904,7 +5905,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>16</v>
@@ -5923,7 +5924,7 @@
         <v>90</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>16</v>
@@ -5931,7 +5932,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="126" x14ac:dyDescent="0.15">
@@ -5942,7 +5943,7 @@
         <v>91</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>16</v>
@@ -5950,7 +5951,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="70" x14ac:dyDescent="0.15">
@@ -5961,7 +5962,7 @@
         <v>92</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>16</v>
@@ -5980,7 +5981,7 @@
         <v>94</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>16</v>
@@ -6064,7 +6065,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -6084,15 +6085,15 @@
         <v>98</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="126" x14ac:dyDescent="0.15">
@@ -6103,10 +6104,10 @@
         <v>99</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -6122,10 +6123,10 @@
         <v>101</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -6141,10 +6142,10 @@
         <v>103</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -6160,10 +6161,10 @@
         <v>105</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -6179,15 +6180,15 @@
         <v>107</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="182" x14ac:dyDescent="0.15">
@@ -6198,7 +6199,7 @@
         <v>108</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="17"/>
@@ -6215,22 +6216,22 @@
         <v>110</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="26"/>
       <c r="C12" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>16</v>
@@ -6245,10 +6246,10 @@
       <c r="A13" s="20"/>
       <c r="B13" s="26"/>
       <c r="C13" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -6264,7 +6265,7 @@
         <v>113</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>16</v>
@@ -6283,15 +6284,15 @@
         <v>115</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="154" x14ac:dyDescent="0.15">
@@ -6302,15 +6303,15 @@
         <v>116</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="98" x14ac:dyDescent="0.15">
@@ -6321,7 +6322,7 @@
         <v>117</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>16</v>
@@ -6340,10 +6341,10 @@
         <v>119</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -6359,15 +6360,15 @@
         <v>121</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="168" x14ac:dyDescent="0.15">
@@ -6378,7 +6379,7 @@
         <v>122</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>16</v>
@@ -6397,7 +6398,7 @@
         <v>124</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>16</v>
@@ -6408,7 +6409,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="210" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="252" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>16</v>
       </c>
@@ -6416,7 +6417,7 @@
         <v>126</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>16</v>
@@ -6424,7 +6425,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="18" t="s">
-        <v>127</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="168" x14ac:dyDescent="0.15">
@@ -6432,16 +6433,16 @@
         <v>17</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="84" x14ac:dyDescent="0.15">
@@ -6449,10 +6450,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>16</v>
@@ -6460,7 +6461,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="98" x14ac:dyDescent="0.15">
@@ -6468,18 +6469,18 @@
         <v>19</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="98" x14ac:dyDescent="0.15">
@@ -6487,18 +6488,18 @@
         <v>20</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="98" x14ac:dyDescent="0.15">
@@ -6506,18 +6507,18 @@
         <v>21</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="98" x14ac:dyDescent="0.15">
@@ -6525,18 +6526,18 @@
         <v>22</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="140" x14ac:dyDescent="0.15">
@@ -6544,18 +6545,18 @@
         <v>23</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="210" x14ac:dyDescent="0.15">
@@ -6563,10 +6564,10 @@
         <v>24</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>16</v>
@@ -6574,7 +6575,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="112" x14ac:dyDescent="0.15">
@@ -6582,10 +6583,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>16</v>
@@ -6593,7 +6594,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="70" x14ac:dyDescent="0.15">
@@ -6601,10 +6602,10 @@
         <v>26</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>16</v>
@@ -6612,14 +6613,14 @@
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="20"/>
       <c r="B33" s="26"/>
       <c r="C33" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>16</v>
@@ -6627,14 +6628,14 @@
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A34" s="20"/>
       <c r="B34" s="26"/>
       <c r="C34" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>16</v>
@@ -6687,7 +6688,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -6698,7 +6699,7 @@
     </row>
     <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -6718,7 +6719,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -6735,10 +6736,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>16</v>
@@ -6746,7 +6747,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="345" x14ac:dyDescent="0.15">
@@ -6754,10 +6755,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>16</v>
@@ -6765,7 +6766,7 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="84" x14ac:dyDescent="0.15">
@@ -6773,10 +6774,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>16</v>
@@ -6784,7 +6785,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="112" x14ac:dyDescent="0.15">
@@ -6792,10 +6793,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>16</v>
@@ -6803,7 +6804,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="84" x14ac:dyDescent="0.15">
@@ -6811,10 +6812,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>16</v>
@@ -6822,7 +6823,7 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="70" x14ac:dyDescent="0.15">
@@ -6830,10 +6831,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>16</v>
@@ -6841,7 +6842,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6886,7 +6887,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -6897,7 +6898,7 @@
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -6917,7 +6918,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -6934,10 +6935,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>16</v>
@@ -6945,7 +6946,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -6953,10 +6954,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>16</v>
@@ -6964,7 +6965,7 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="56" x14ac:dyDescent="0.15">
@@ -6972,10 +6973,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>16</v>
@@ -6983,7 +6984,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="70" x14ac:dyDescent="0.15">
@@ -6991,10 +6992,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>16</v>
@@ -7002,7 +7003,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -7010,10 +7011,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>16</v>
@@ -7021,7 +7022,7 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -7029,10 +7030,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>16</v>
@@ -7040,7 +7041,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -7048,10 +7049,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>16</v>
@@ -7059,7 +7060,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="56" x14ac:dyDescent="0.15">
@@ -7067,10 +7068,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>16</v>
@@ -7078,7 +7079,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
